--- a/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
+++ b/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="录制接口" sheetId="4" r:id="rId1"/>
@@ -67,14 +67,6 @@
   </si>
   <si>
     <t>http://192.165.56.18:8094/monitor/record/add/record/user/task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long userId 录制的用户id
-String mode 录制模式
-String fileName 录制文件名
-String startTime 排期录制开始时间
-String endTime 排期录制结束时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -195,24 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Long fileId 文件id
-Long osdId osd id
-String dstVideoBundleId 目的视频设备id
-String dstVideoBundleName 目的视频设备名称
-String dstVideoBundleType 目的视频设备类型
-String dstVideoLayerId 目的视频设备接入层
-String dstVideoChannelId 目的视频通道id
-String dstVideoBaseType 目的视频通道类型
-String dstAudioBundleId 目的音频设备id
-String dstAudioBundleName 目的音频设备名称
-String dstAudioBundleType 目的音频设备类型
-String dstAudioLayerId 目的音频设备接入层
-String dstAudioChannelId 目的音频通道id
-String dstAudioBaseType 目的音频通道类型
-long userId 操作业务用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     id:"文件id",
     fileName:"文件名称",
@@ -249,14 +223,6 @@
 String startTime 开始录制时间
 String endTime 结束录制时间
 String bundleId xt设备id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String mode 录制模式
-String fileName 文件名
-String startTime 开始录制时间
-String endTime 结束录制时间
-String bundleId 录制设备id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -394,12 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外部文件夹全路径fullPath
-int currentPage 当前页码
-int pageSize 每页数据量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     total:"总数据量",
     rows:[{
@@ -491,6 +451,48 @@
         playable:"当前文件是否可播放--主要根据是否有接入层id来判断"
     }]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+    id:"文件夹id",
+    name:"文件夹名称",
+    param:"没啥用就忽略",
+    type:"FOLDER",
+    icon:"icon-folder-close",
+    key:"key",
+    children:[{
+        id:"设备id",
+        name:"设备名称",
+        param:"{realType:"XT或BVC"}",
+        type:"BUNDLE",
+        icon:"icon-facetime-video",
+        key:"key"
+    },{
+        id:"用户id",
+        name:"用户名称",
+        param:"没啥用就忽略",
+        type:"USER",
+        icon:"icon-user",
+        key:"key"
+    }]
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String mode 录制模式
+String fileName 文件名
+String startTime 开始录制时间
+String endTime 结束录制时间
+String bundleId 录制设备id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long targetUserId 录制的用户id
+String mode 录制模式
+String fileName 录制文件名
+String startTime 排期录制开始时间
+String endTime 排期录制结束时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -551,7 +553,9 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>type为USER时设置此字段</t>
+      <t>type为USER时设置此字段
+String timeLowerLimit 时间下限
+String timeUpperLimit 时间上限</t>
     </r>
     <r>
       <rPr>
@@ -568,29 +572,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{
-    id:"文件夹id",
-    name:"文件夹名称",
-    param:"没啥用就忽略",
-    type:"FOLDER",
-    icon:"icon-folder-close",
-    key:"key",
-    children:[{
-        id:"设备id",
-        name:"设备名称",
-        param:"{realType:"XT或BVC"}",
-        type:"BUNDLE",
-        icon:"icon-facetime-video",
-        key:"key"
-    },{
-        id:"用户id",
-        name:"用户名称",
-        param:"没啥用就忽略",
-        type:"USER",
-        icon:"icon-user",
-        key:"key"
-    }]
-}]</t>
+    <t>Long fileId 文件id
+Long osdId osd id
+String dstVideoBundleId 目的视频设备id
+String dstVideoBundleName 目的视频设备名称
+String dstVideoBundleType 目的视频设备类型
+String dstVideoLayerId 目的视频设备接入层
+String dstVideoChannelId 目的视频通道id
+String dstVideoBaseType 目的视频通道类型
+String dstAudioBundleId 目的音频设备id
+String dstAudioBundleName 目的音频设备名称
+String dstAudioBundleType 目的音频设备类型
+String dstAudioLayerId 目的音频设备接入层
+String dstAudioChannelId 目的音频通道id
+String dstAudioBaseType 目的音频通道类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String fullPath 外部文件夹全路径
+int currentPage 当前页码
+int pageSize 每页数据量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,9 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F10"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1131,10 +1130,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1218,10 +1217,10 @@
         <v>9</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1313,16 +1312,16 @@
         <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1392,10 +1391,10 @@
         <v>12</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1466,13 +1465,13 @@
         <v>6</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54" s="5"/>
     </row>
@@ -1934,9 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1973,14 +1970,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2100,16 +2097,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2194,16 +2191,16 @@
         <v>3</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2281,16 +2278,16 @@
         <v>4</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2368,13 +2365,13 @@
         <v>5</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="F54" s="5"/>
     </row>
@@ -2432,13 +2429,13 @@
         <v>6</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F62" s="5"/>
     </row>
@@ -2900,7 +2897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F110"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2937,14 +2934,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3001,16 +2998,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3095,16 +3092,16 @@
         <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3182,16 +3179,16 @@
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3269,16 +3266,16 @@
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3349,13 +3346,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F55" s="5"/>
     </row>
@@ -3413,16 +3410,16 @@
         <v>7</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3479,14 +3476,14 @@
         <v>8</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3543,16 +3540,16 @@
         <v>9</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3609,13 +3606,13 @@
         <v>10</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="5"/>
     </row>

--- a/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
+++ b/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["HTTP", "FTP"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分页查询所有外部文件夹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,23 +374,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{
-    id:"资源id",
-    name:"名称",
-    param:"预览url",
-    type:"VOD_RESOURCE",
-    icon:"icon-file-alt",
-    key:"key",
-    children:[{}]
-}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加点播资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.165.56.18:8094/monitor/vod/query/resource/tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -592,6 +572,53 @@
     <t>String fullPath 外部文件夹全路径
 int currentPage 当前页码
 int pageSize 每页数据量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/vod/query/resource/tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["http协议", "ftp协议"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/query/resource/tree/for/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页面获取点播资源树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+    id:"资源id",
+    name:"名称",
+    param:"预览url",
+    type:"VOD_RESOURCE",
+    icon:"icon-file-alt",
+    key:"key",
+    children:[{}]
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+    id:"资源id",
+    name:"名称",
+    param:"忽略",
+    type:"FOLDER",
+    icon:"icon-folder-close",
+    key:"key",
+    children:[{
+        id:"资源id",
+        name:"资源名称",
+        param:"预览url",
+        type:"VOD_RESOURCE",
+        icon:"icon-file-alt",
+        key:"key"
+    }]
+}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1217,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>15</v>
@@ -1391,7 +1418,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>15</v>
@@ -1862,66 +1889,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B11:B21"/>
+    <mergeCell ref="C11:C21"/>
+    <mergeCell ref="D11:D21"/>
+    <mergeCell ref="E11:E21"/>
+    <mergeCell ref="F11:F21"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="C35:C43"/>
+    <mergeCell ref="D35:D43"/>
+    <mergeCell ref="E35:E43"/>
+    <mergeCell ref="F35:F43"/>
+    <mergeCell ref="B22:B34"/>
+    <mergeCell ref="C22:C34"/>
+    <mergeCell ref="D22:D34"/>
+    <mergeCell ref="E22:E34"/>
+    <mergeCell ref="F22:F34"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="F54:F61"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="D44:D53"/>
+    <mergeCell ref="E44:E53"/>
+    <mergeCell ref="F44:F53"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="C86:C93"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="C78:C85"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="E78:E85"/>
+    <mergeCell ref="F78:F85"/>
+    <mergeCell ref="B102:B109"/>
+    <mergeCell ref="C102:C109"/>
+    <mergeCell ref="D102:D109"/>
+    <mergeCell ref="E102:E109"/>
+    <mergeCell ref="F102:F109"/>
     <mergeCell ref="B94:B101"/>
     <mergeCell ref="C94:C101"/>
     <mergeCell ref="D94:D101"/>
     <mergeCell ref="E94:E101"/>
     <mergeCell ref="F94:F101"/>
-    <mergeCell ref="B102:B109"/>
-    <mergeCell ref="C102:C109"/>
-    <mergeCell ref="D102:D109"/>
-    <mergeCell ref="E102:E109"/>
-    <mergeCell ref="F102:F109"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="C78:C85"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="E78:E85"/>
-    <mergeCell ref="F78:F85"/>
-    <mergeCell ref="B86:B93"/>
-    <mergeCell ref="C86:C93"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="B44:B53"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="D44:D53"/>
-    <mergeCell ref="E44:E53"/>
-    <mergeCell ref="F44:F53"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="E54:E61"/>
-    <mergeCell ref="F54:F61"/>
-    <mergeCell ref="B22:B34"/>
-    <mergeCell ref="C22:C34"/>
-    <mergeCell ref="D22:D34"/>
-    <mergeCell ref="E22:E34"/>
-    <mergeCell ref="F22:F34"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="C35:C43"/>
-    <mergeCell ref="D35:D43"/>
-    <mergeCell ref="E35:E43"/>
-    <mergeCell ref="F35:F43"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="B11:B21"/>
-    <mergeCell ref="C11:C21"/>
-    <mergeCell ref="D11:D21"/>
-    <mergeCell ref="E11:E21"/>
-    <mergeCell ref="F11:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1933,7 +1960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F117"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:E42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1970,14 +1999,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2197,10 +2226,10 @@
         <v>26</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2284,7 +2313,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>30</v>
@@ -2826,66 +2855,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="C20:C31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="F20:F31"/>
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="C3:C19"/>
+    <mergeCell ref="D3:D19"/>
+    <mergeCell ref="E3:E19"/>
+    <mergeCell ref="F3:F19"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D43:D53"/>
+    <mergeCell ref="E43:E53"/>
+    <mergeCell ref="F43:F53"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="C32:C42"/>
+    <mergeCell ref="D32:D42"/>
+    <mergeCell ref="E32:E42"/>
+    <mergeCell ref="F32:F42"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="F54:F61"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="C78:C85"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="E78:E85"/>
+    <mergeCell ref="F78:F85"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="C94:C101"/>
+    <mergeCell ref="D94:D101"/>
+    <mergeCell ref="E94:E101"/>
+    <mergeCell ref="F94:F101"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="C86:C93"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
+    <mergeCell ref="B110:B117"/>
+    <mergeCell ref="C110:C117"/>
+    <mergeCell ref="D110:D117"/>
+    <mergeCell ref="E110:E117"/>
+    <mergeCell ref="F110:F117"/>
     <mergeCell ref="B102:B109"/>
     <mergeCell ref="C102:C109"/>
     <mergeCell ref="D102:D109"/>
     <mergeCell ref="E102:E109"/>
     <mergeCell ref="F102:F109"/>
-    <mergeCell ref="B110:B117"/>
-    <mergeCell ref="C110:C117"/>
-    <mergeCell ref="D110:D117"/>
-    <mergeCell ref="E110:E117"/>
-    <mergeCell ref="F110:F117"/>
-    <mergeCell ref="B86:B93"/>
-    <mergeCell ref="C86:C93"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="C94:C101"/>
-    <mergeCell ref="D94:D101"/>
-    <mergeCell ref="E94:E101"/>
-    <mergeCell ref="F94:F101"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="C78:C85"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="E78:E85"/>
-    <mergeCell ref="F78:F85"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="E54:E61"/>
-    <mergeCell ref="F54:F61"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="B32:B42"/>
-    <mergeCell ref="C32:C42"/>
-    <mergeCell ref="D32:D42"/>
-    <mergeCell ref="E32:E42"/>
-    <mergeCell ref="F32:F42"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D43:D53"/>
-    <mergeCell ref="E43:E53"/>
-    <mergeCell ref="F43:F53"/>
-    <mergeCell ref="B3:B19"/>
-    <mergeCell ref="C3:C19"/>
-    <mergeCell ref="D3:D19"/>
-    <mergeCell ref="E3:E19"/>
-    <mergeCell ref="F3:F19"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="C20:C31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="E20:E31"/>
-    <mergeCell ref="F20:F31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2895,9 +2924,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F110"/>
+  <dimension ref="B1:F118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95:F110"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2941,7 +2972,7 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2998,16 +3029,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3092,16 +3123,16 @@
         <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3179,16 +3210,16 @@
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3266,16 +3297,16 @@
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3346,13 +3377,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F55" s="5"/>
     </row>
@@ -3410,16 +3441,16 @@
         <v>7</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3476,14 +3507,14 @@
         <v>8</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3540,16 +3571,16 @@
         <v>9</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3606,13 +3637,13 @@
         <v>10</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="F87" s="5"/>
     </row>
@@ -3666,11 +3697,19 @@
       <c r="F94" s="7"/>
     </row>
     <row r="95" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="3"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="5"/>
+      <c r="B95" s="3">
+        <v>11</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
+      <c r="F95" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="96" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="3"/>
@@ -3717,16 +3756,16 @@
     <row r="102" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="3"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
     </row>
     <row r="103" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="3"/>
       <c r="C103" s="4"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
     </row>
     <row r="104" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="3"/>
@@ -3777,68 +3816,124 @@
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
     </row>
+    <row r="111" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="3"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="3"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="3"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="3"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+    </row>
+    <row r="115" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="3"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+    </row>
+    <row r="116" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="3"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+    </row>
+    <row r="117" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="3"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="3"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B95:B110"/>
+    <mergeCell ref="C95:C110"/>
+    <mergeCell ref="D95:D110"/>
+    <mergeCell ref="E95:E110"/>
+    <mergeCell ref="F95:F110"/>
+    <mergeCell ref="B111:B118"/>
+    <mergeCell ref="C111:C118"/>
+    <mergeCell ref="D111:D118"/>
+    <mergeCell ref="E111:E118"/>
+    <mergeCell ref="F111:F118"/>
+    <mergeCell ref="B79:B86"/>
+    <mergeCell ref="C79:C86"/>
+    <mergeCell ref="D79:D86"/>
+    <mergeCell ref="E79:E86"/>
+    <mergeCell ref="F79:F86"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="C87:C94"/>
+    <mergeCell ref="D87:D94"/>
+    <mergeCell ref="E87:E94"/>
+    <mergeCell ref="F87:F94"/>
+    <mergeCell ref="B63:B70"/>
+    <mergeCell ref="C63:C70"/>
+    <mergeCell ref="D63:D70"/>
+    <mergeCell ref="E63:E70"/>
+    <mergeCell ref="F63:F70"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="D71:D78"/>
+    <mergeCell ref="E71:E78"/>
+    <mergeCell ref="F71:F78"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="D45:D54"/>
+    <mergeCell ref="E45:E54"/>
+    <mergeCell ref="F45:F54"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="F55:F62"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="C23:C33"/>
+    <mergeCell ref="D23:D33"/>
+    <mergeCell ref="E23:E33"/>
+    <mergeCell ref="F23:F33"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="C34:C44"/>
+    <mergeCell ref="D34:D44"/>
+    <mergeCell ref="E34:E44"/>
+    <mergeCell ref="F34:F44"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="F3:F10"/>
     <mergeCell ref="B11:B22"/>
     <mergeCell ref="C11:C22"/>
     <mergeCell ref="D11:D22"/>
     <mergeCell ref="E11:E22"/>
     <mergeCell ref="F11:F22"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="B34:B44"/>
-    <mergeCell ref="C34:C44"/>
-    <mergeCell ref="D34:D44"/>
-    <mergeCell ref="E34:E44"/>
-    <mergeCell ref="F34:F44"/>
-    <mergeCell ref="B23:B33"/>
-    <mergeCell ref="C23:C33"/>
-    <mergeCell ref="D23:D33"/>
-    <mergeCell ref="E23:E33"/>
-    <mergeCell ref="F23:F33"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="E55:E62"/>
-    <mergeCell ref="F55:F62"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="D45:D54"/>
-    <mergeCell ref="E45:E54"/>
-    <mergeCell ref="F45:F54"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="D71:D78"/>
-    <mergeCell ref="E71:E78"/>
-    <mergeCell ref="F71:F78"/>
-    <mergeCell ref="B63:B70"/>
-    <mergeCell ref="C63:C70"/>
-    <mergeCell ref="D63:D70"/>
-    <mergeCell ref="E63:E70"/>
-    <mergeCell ref="F63:F70"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="C87:C94"/>
-    <mergeCell ref="D87:D94"/>
-    <mergeCell ref="E87:E94"/>
-    <mergeCell ref="F87:F94"/>
-    <mergeCell ref="B79:B86"/>
-    <mergeCell ref="C79:C86"/>
-    <mergeCell ref="D79:D86"/>
-    <mergeCell ref="E79:E86"/>
-    <mergeCell ref="F79:F86"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="C103:C110"/>
-    <mergeCell ref="D103:D110"/>
-    <mergeCell ref="E103:E110"/>
-    <mergeCell ref="F103:F110"/>
-    <mergeCell ref="B95:B102"/>
-    <mergeCell ref="C95:C102"/>
-    <mergeCell ref="D95:D102"/>
-    <mergeCell ref="E95:E102"/>
-    <mergeCell ref="F95:F102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
+++ b/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="录制接口" sheetId="4" r:id="rId1"/>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.165.56.18:8094/monitor/external/static/resource/folder/load/all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     total:"总数据量",
     rows:[{
@@ -273,10 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.165.56.18:8094/monitor/external/static/resource/folder/load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String name 别名
 String ip ip
 String port 端口
@@ -375,12 +367,6 @@
   </si>
   <si>
     <t>添加点播资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long folderId 点播资源文件夹id
-JSONString resources 点播资源列表
-    {name:点播资源名称, previewUrl:点播资源预览地址}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -473,6 +459,90 @@
 String fileName 录制文件名
 String startTime 排期录制开始时间
 String endTime 排期录制结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long fileId 文件id
+Long osdId osd id
+String dstVideoBundleId 目的视频设备id
+String dstVideoBundleName 目的视频设备名称
+String dstVideoBundleType 目的视频设备类型
+String dstVideoLayerId 目的视频设备接入层
+String dstVideoChannelId 目的视频通道id
+String dstVideoBaseType 目的视频通道类型
+String dstAudioBundleId 目的音频设备id
+String dstAudioBundleName 目的音频设备名称
+String dstAudioBundleType 目的音频设备类型
+String dstAudioLayerId 目的音频设备接入层
+String dstAudioChannelId 目的音频通道id
+String dstAudioBaseType 目的音频通道类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String fullPath 外部文件夹全路径
+int currentPage 当前页码
+int pageSize 每页数据量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/vod/query/resource/tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["http协议", "ftp协议"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/query/resource/tree/for/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑页面获取点播资源树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+    id:"资源id",
+    name:"名称",
+    param:"预览url",
+    type:"VOD_RESOURCE",
+    icon:"icon-file-alt",
+    key:"key",
+    children:[{}]
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+    id:"资源id",
+    name:"名称",
+    param:"忽略",
+    type:"FOLDER",
+    icon:"icon-folder-close",
+    key:"key",
+    children:[{
+        id:"资源id",
+        name:"资源名称",
+        param:"预览url",
+        type:"VOD_RESOURCE",
+        icon:"icon-file-alt",
+        key:"key"
+    }]
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long folderId 点播资源文件夹id
+JSONString resources 点播资源列表
+    {name:点播资源名称, previewUrl:点播资源预览地址}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/external/static/resource/folder/load/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/external/static/resource/folder/load</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -549,76 +619,6 @@
 int currentPage 当前页码
 int pageSize 每页数据量</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long fileId 文件id
-Long osdId osd id
-String dstVideoBundleId 目的视频设备id
-String dstVideoBundleName 目的视频设备名称
-String dstVideoBundleType 目的视频设备类型
-String dstVideoLayerId 目的视频设备接入层
-String dstVideoChannelId 目的视频通道id
-String dstVideoBaseType 目的视频通道类型
-String dstAudioBundleId 目的音频设备id
-String dstAudioBundleName 目的音频设备名称
-String dstAudioBundleType 目的音频设备类型
-String dstAudioLayerId 目的音频设备接入层
-String dstAudioChannelId 目的音频通道id
-String dstAudioBaseType 目的音频通道类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String fullPath 外部文件夹全路径
-int currentPage 当前页码
-int pageSize 每页数据量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.165.56.18:8094/monitor/vod/query/resource/tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["http协议", "ftp协议"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/query/resource/tree/for/edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑页面获取点播资源树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{
-    id:"资源id",
-    name:"名称",
-    param:"预览url",
-    type:"VOD_RESOURCE",
-    icon:"icon-file-alt",
-    key:"key",
-    children:[{}]
-}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{
-    id:"资源id",
-    name:"名称",
-    param:"忽略",
-    type:"FOLDER",
-    icon:"icon-folder-close",
-    key:"key",
-    children:[{
-        id:"资源id",
-        name:"资源名称",
-        param:"预览url",
-        type:"VOD_RESOURCE",
-        icon:"icon-file-alt",
-        key:"key"
-    }]
-}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1244,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>15</v>
@@ -1418,7 +1418,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>15</v>
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F117"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1999,14 +1999,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2226,10 +2226,10 @@
         <v>26</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2313,7 +2313,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>30</v>
@@ -2926,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95:F110"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3032,13 +3032,13 @@
         <v>38</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3126,13 +3126,13 @@
         <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3210,16 +3210,16 @@
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3297,16 +3297,16 @@
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="F45" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3377,13 +3377,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F55" s="5"/>
     </row>
@@ -3441,16 +3441,16 @@
         <v>7</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3507,14 +3507,14 @@
         <v>8</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3571,16 +3571,16 @@
         <v>9</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3637,13 +3637,13 @@
         <v>10</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="F87" s="5"/>
     </row>
@@ -3701,14 +3701,14 @@
         <v>11</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
+++ b/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="录制接口" sheetId="4" r:id="rId1"/>
@@ -348,16 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    total:"总数据量",
-    rows:[{
-        name:"文件名称",
-        fullPath:"全路径"
-    }]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询点播资源树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,10 +376,6 @@
   </si>
   <si>
     <t>http://192.165.56.18:8094/monitor/vod/add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.165.56.18:8094/monitor/vod/remove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,10 +479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/query/resource/tree/for/edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑页面获取点播资源树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -529,12 +511,6 @@
         key:"key"
     }]
 }]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long folderId 点播资源文件夹id
-JSONString resources 点播资源列表
-    {name:点播资源名称, previewUrl:点播资源预览地址}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -619,6 +595,30 @@
 int currentPage 当前页码
 int pageSize 每页数据量</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/vod/remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/vod/query/resource/tree/for/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long folderId 点播资源文件夹id
+JSONString resources 点播资源列表
+    {name:点播资源名称, previewUrl:点播资源预览地址}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    total:"总数据量",
+    rows:[{
+        name:"文件名称",
+        fullPath:"全路径"
+    }]
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1244,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>15</v>
@@ -1418,7 +1418,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>15</v>
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:F42"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1999,14 +1999,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2226,10 +2226,10 @@
         <v>26</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2313,7 +2313,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>30</v>
@@ -2926,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F118"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:F54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71:E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3032,7 +3032,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>39</v>
@@ -3126,7 +3126,7 @@
         <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>39</v>
@@ -3444,13 +3444,13 @@
         <v>52</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3507,14 +3507,14 @@
         <v>8</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3571,16 +3571,16 @@
         <v>9</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3637,13 +3637,13 @@
         <v>10</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F87" s="5"/>
     </row>
@@ -3701,14 +3701,14 @@
         <v>11</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
+++ b/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="录制接口" sheetId="4" r:id="rId1"/>
     <sheet name="调阅接口" sheetId="1" r:id="rId2"/>
     <sheet name="文件导入接口" sheetId="5" r:id="rId3"/>
+    <sheet name="字幕接口" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="150">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,10 +228,6 @@
   </si>
   <si>
     <t>协议类型查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.165.56.18:8094/monitor/external/static/resource/folder/query/types</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -619,6 +616,605 @@
         fullPath:"全路径"
     }]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询字体列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/external/static/resource/folder/query/types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/subtitle/query/fonts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["黑体","楷体","宋体","仿宋","微软雅黑"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int currentPage 当前页码
+int pageSize 每页数据量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    total:"总数据量",
+    rows:[{
+        id:"字幕id",
+        uuid:"字幕uuid",
+        name:"字幕别名",
+        content:"字幕内容",
+        font:"字体"，
+        height:"字体高度",
+        color:"字体颜色16进制无#号（例：000000）",
+        username:"创建用户用户名"
+    }]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/subtitle/load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页查询用户创建的字幕列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页查询系统中全部字幕列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int currentPage 当前页码
+int pageSize 每页数据量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加字幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/subtitle/monitor/subtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    id:"字幕id",
+    uuid:"字幕uuid",
+    name:"字幕别名",
+    content:"字幕内容",
+    font:"字体"，
+    height:"字体高度",
+    color:"字体颜色16进制无#号（例：000000）",
+    username:"创建用户用户名"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除字幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/subtitle/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url参数：Long id 字幕id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改字幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/subtitle/remove/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url参数：Long id 字幕id
+String name 字幕名称
+String content 文本内容
+String font 字体（"黑体","楷体","宋体","仿宋","微软雅黑"）默认黑体
+Integer height 字体大小（0-100，默认20）
+String color 16进制颜色 没有#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    id:"字幕id",
+    uuid:"字幕uuid",
+    name:"字幕别名",
+    content:"字幕内容",
+    font:"字体"，
+    height:"字体高度",
+    color:"字体颜色16进制无#号（例：000000）",
+    username:"创建用户用户名"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页查询用户创建的osd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/subtitle/edit/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页查询系统中所有的osd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/osd/load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    total:"总数据量",
+    rows:[{
+        id:"osd id",
+        uuid:"osd uuid",
+        name:"osd名称",
+        username:"osd创建者用户名"
+    }]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一个osd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/osd/load/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String name osd名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改osd名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/osd/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    id:"osd id",
+    uuid:"osd uuid",
+    name:"osd名称",
+    username:"osd创建者用户名"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    id:"osd id",
+    uuid:"osd uuid",
+    name:"osd名称",
+    username:"osd创建者用户名"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除osd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/osd/edit/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url参数：Long id osd id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url参数：Long id osd id
+String name osd名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询图层类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/osd/remove/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["字幕","日期","时间","设备名称"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String name 字幕名称
+String content 文本内容
+String font 字体（取值："黑体","楷体","宋体","仿宋","微软雅黑"）默认黑体
+Integer height 字体大小（0-100，默认20）
+String color 16进制颜色 没有#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询osd下所有的图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/osd/layer/query/types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long osdId osd id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向osd添加字幕图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/osd/layer/load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long osdId osd id
+int x 万分比坐标0~100
+int y 万分比坐标0~100
+int layerIndex 图层顺序0~7
+Long subtitleId 字幕id
+String subtitleName 字幕名称
+String subtitleUsername 字幕创建用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向osd添加日期图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/osd/layer/add/subtitle/layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long osdId osd id
+int x 横坐标百分比0~100
+int y 纵坐标百分比0~100
+int layerIndex 图层顺序0~7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    id:"图层id",
+    uuid:"图层uuid",
+    x:"横坐标百分比0~100",
+    y:"纵坐标百分比0~100",
+    layerIndex:"图层序号0~7",
+    type:"DATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(日期)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/osd/layer/add/date/layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    id:"图层id",
+    uuid:"图层uuid",
+    x:"横坐标百分比0~100",
+    y:"纵坐标百分比0~100",
+    layerIndex:"图层序号0~7",
+    type:"DATETIME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(时间)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向osd添加时间图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向osd添加设备名称图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/osd/layer/add/datetime/layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/osd/layer/add/devname/layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[{
+    id:"图层id",
+    uuid:"图层uuid",
+    x:"横坐标百分比0~100",
+    y:"纵坐标百分比0~100",
+    layerIndex:"图层序号0~7",
+    subtitleId:"字幕id",
+    subtitleName:"字幕名称",
+    subtitleUsername:"字幕创建者用户名",
+    type:"SUBTITLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(字幕)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,DATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(日期)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,DATETIME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(时间)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,DATETIME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(设备名称)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+}]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    id:"图层id",
+    uuid:"图层uuid",
+    x:"横坐标百分比0~100",
+    y:"纵坐标百分比0~100",
+    layerIndex:"图层序号0~7",
+    type:"DATETIME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(设备名称)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除osd图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url参数 Long id 图层id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改字幕图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/osd/layer/remove/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url参数：Long id 图层id
+int x 万分比坐标0~100
+int y 万分比坐标0~100
+Long subtitleId 字幕id
+String subtitleName 字幕名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    id:"图层id",
+    uuid:"图层uuid",
+    x:"横坐标百分比0~100",
+    y:"纵坐标百分比0~100",
+    layerIndex:"图层序号0~7",
+    subtitleId:"字幕id",
+    subtitleName:"字幕名称",
+    subtitleUsername:"字幕创建者用户名",
+    type:"SUBTITLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(字幕)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    id:"图层id",
+    uuid:"图层uuid",
+    x:"横坐标百分比0~100",
+    y:"纵坐标百分比0~100",
+    layerIndex:"图层序号0~7",
+    subtitleId:"字幕id",
+    subtitleName:"字幕名称",
+    subtitleUsername:"字幕创建者用户名",
+    type:"SUBTITLE(字幕)"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>osd图层排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/osd/layer/edit/subtitle/layer/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/osd/layer/sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long osdId osd id
+int x 横坐标百分比0~100
+int y 纵坐标百分比0~100
+int layerIndex 图层顺序0~7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JSONArray layers 设置顺序的图层
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[{id:'图层id', layerIndex:'图层顺序0~7'}]</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1054,7 +1650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F109"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1244,7 +1840,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>15</v>
@@ -1418,7 +2014,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>15</v>
@@ -1889,66 +2485,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="C94:C101"/>
+    <mergeCell ref="D94:D101"/>
+    <mergeCell ref="E94:E101"/>
+    <mergeCell ref="F94:F101"/>
+    <mergeCell ref="B102:B109"/>
+    <mergeCell ref="C102:C109"/>
+    <mergeCell ref="D102:D109"/>
+    <mergeCell ref="E102:E109"/>
+    <mergeCell ref="F102:F109"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="C78:C85"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="E78:E85"/>
+    <mergeCell ref="F78:F85"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="C86:C93"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="D44:D53"/>
+    <mergeCell ref="E44:E53"/>
+    <mergeCell ref="F44:F53"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="F54:F61"/>
+    <mergeCell ref="B22:B34"/>
+    <mergeCell ref="C22:C34"/>
+    <mergeCell ref="D22:D34"/>
+    <mergeCell ref="E22:E34"/>
+    <mergeCell ref="F22:F34"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="C35:C43"/>
+    <mergeCell ref="D35:D43"/>
+    <mergeCell ref="E35:E43"/>
+    <mergeCell ref="F35:F43"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="F3:F10"/>
     <mergeCell ref="B11:B21"/>
     <mergeCell ref="C11:C21"/>
     <mergeCell ref="D11:D21"/>
     <mergeCell ref="E11:E21"/>
     <mergeCell ref="F11:F21"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="C35:C43"/>
-    <mergeCell ref="D35:D43"/>
-    <mergeCell ref="E35:E43"/>
-    <mergeCell ref="F35:F43"/>
-    <mergeCell ref="B22:B34"/>
-    <mergeCell ref="C22:C34"/>
-    <mergeCell ref="D22:D34"/>
-    <mergeCell ref="E22:E34"/>
-    <mergeCell ref="F22:F34"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="E54:E61"/>
-    <mergeCell ref="F54:F61"/>
-    <mergeCell ref="B44:B53"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="D44:D53"/>
-    <mergeCell ref="E44:E53"/>
-    <mergeCell ref="F44:F53"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="B86:B93"/>
-    <mergeCell ref="C86:C93"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="C78:C85"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="E78:E85"/>
-    <mergeCell ref="F78:F85"/>
-    <mergeCell ref="B102:B109"/>
-    <mergeCell ref="C102:C109"/>
-    <mergeCell ref="D102:D109"/>
-    <mergeCell ref="E102:E109"/>
-    <mergeCell ref="F102:F109"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="C94:C101"/>
-    <mergeCell ref="D94:D101"/>
-    <mergeCell ref="E94:E101"/>
-    <mergeCell ref="F94:F101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1960,9 +2556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F117"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:E42"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1999,14 +2593,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2226,10 +2820,10 @@
         <v>26</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2313,7 +2907,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>30</v>
@@ -2855,66 +3449,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B102:B109"/>
+    <mergeCell ref="C102:C109"/>
+    <mergeCell ref="D102:D109"/>
+    <mergeCell ref="E102:E109"/>
+    <mergeCell ref="F102:F109"/>
+    <mergeCell ref="B110:B117"/>
+    <mergeCell ref="C110:C117"/>
+    <mergeCell ref="D110:D117"/>
+    <mergeCell ref="E110:E117"/>
+    <mergeCell ref="F110:F117"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="C86:C93"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="C94:C101"/>
+    <mergeCell ref="D94:D101"/>
+    <mergeCell ref="E94:E101"/>
+    <mergeCell ref="F94:F101"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="C78:C85"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="E78:E85"/>
+    <mergeCell ref="F78:F85"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="F54:F61"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="C32:C42"/>
+    <mergeCell ref="D32:D42"/>
+    <mergeCell ref="E32:E42"/>
+    <mergeCell ref="F32:F42"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D43:D53"/>
+    <mergeCell ref="E43:E53"/>
+    <mergeCell ref="F43:F53"/>
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="C3:C19"/>
+    <mergeCell ref="D3:D19"/>
+    <mergeCell ref="E3:E19"/>
+    <mergeCell ref="F3:F19"/>
     <mergeCell ref="B20:B31"/>
     <mergeCell ref="C20:C31"/>
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="E20:E31"/>
     <mergeCell ref="F20:F31"/>
-    <mergeCell ref="B3:B19"/>
-    <mergeCell ref="C3:C19"/>
-    <mergeCell ref="D3:D19"/>
-    <mergeCell ref="E3:E19"/>
-    <mergeCell ref="F3:F19"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D43:D53"/>
-    <mergeCell ref="E43:E53"/>
-    <mergeCell ref="F43:F53"/>
-    <mergeCell ref="B32:B42"/>
-    <mergeCell ref="C32:C42"/>
-    <mergeCell ref="D32:D42"/>
-    <mergeCell ref="E32:E42"/>
-    <mergeCell ref="F32:F42"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="E54:E61"/>
-    <mergeCell ref="F54:F61"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="C78:C85"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="E78:E85"/>
-    <mergeCell ref="F78:F85"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="C94:C101"/>
-    <mergeCell ref="D94:D101"/>
-    <mergeCell ref="E94:E101"/>
-    <mergeCell ref="F94:F101"/>
-    <mergeCell ref="B86:B93"/>
-    <mergeCell ref="C86:C93"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="B110:B117"/>
-    <mergeCell ref="C110:C117"/>
-    <mergeCell ref="D110:D117"/>
-    <mergeCell ref="E110:E117"/>
-    <mergeCell ref="F110:F117"/>
-    <mergeCell ref="B102:B109"/>
-    <mergeCell ref="C102:C109"/>
-    <mergeCell ref="D102:D109"/>
-    <mergeCell ref="E102:E109"/>
-    <mergeCell ref="F102:F109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2926,9 +3520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71:E78"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2968,11 +3560,11 @@
         <v>36</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3029,16 +3621,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3123,16 +3715,16 @@
         <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3210,16 +3802,16 @@
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3297,16 +3889,16 @@
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3377,13 +3969,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F55" s="5"/>
     </row>
@@ -3441,16 +4033,16 @@
         <v>7</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3507,14 +4099,14 @@
         <v>8</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3571,16 +4163,16 @@
         <v>9</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3637,13 +4229,13 @@
         <v>10</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F87" s="5"/>
     </row>
@@ -3701,14 +4293,14 @@
         <v>11</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3874,66 +4466,2573 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="C11:C22"/>
+    <mergeCell ref="D11:D22"/>
+    <mergeCell ref="E11:E22"/>
+    <mergeCell ref="F11:F22"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="C34:C44"/>
+    <mergeCell ref="D34:D44"/>
+    <mergeCell ref="E34:E44"/>
+    <mergeCell ref="F34:F44"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="C23:C33"/>
+    <mergeCell ref="D23:D33"/>
+    <mergeCell ref="E23:E33"/>
+    <mergeCell ref="F23:F33"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="F55:F62"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="D45:D54"/>
+    <mergeCell ref="E45:E54"/>
+    <mergeCell ref="F45:F54"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="D71:D78"/>
+    <mergeCell ref="E71:E78"/>
+    <mergeCell ref="F71:F78"/>
+    <mergeCell ref="B63:B70"/>
+    <mergeCell ref="C63:C70"/>
+    <mergeCell ref="D63:D70"/>
+    <mergeCell ref="E63:E70"/>
+    <mergeCell ref="F63:F70"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="C87:C94"/>
+    <mergeCell ref="D87:D94"/>
+    <mergeCell ref="E87:E94"/>
+    <mergeCell ref="F87:F94"/>
+    <mergeCell ref="B79:B86"/>
+    <mergeCell ref="C79:C86"/>
+    <mergeCell ref="D79:D86"/>
+    <mergeCell ref="E79:E86"/>
+    <mergeCell ref="F79:F86"/>
+    <mergeCell ref="B111:B118"/>
+    <mergeCell ref="C111:C118"/>
+    <mergeCell ref="D111:D118"/>
+    <mergeCell ref="E111:E118"/>
+    <mergeCell ref="F111:F118"/>
     <mergeCell ref="B95:B110"/>
     <mergeCell ref="C95:C110"/>
     <mergeCell ref="D95:D110"/>
     <mergeCell ref="E95:E110"/>
     <mergeCell ref="F95:F110"/>
-    <mergeCell ref="B111:B118"/>
-    <mergeCell ref="C111:C118"/>
-    <mergeCell ref="D111:D118"/>
-    <mergeCell ref="E111:E118"/>
-    <mergeCell ref="F111:F118"/>
-    <mergeCell ref="B79:B86"/>
-    <mergeCell ref="C79:C86"/>
-    <mergeCell ref="D79:D86"/>
-    <mergeCell ref="E79:E86"/>
-    <mergeCell ref="F79:F86"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="C87:C94"/>
-    <mergeCell ref="D87:D94"/>
-    <mergeCell ref="E87:E94"/>
-    <mergeCell ref="F87:F94"/>
-    <mergeCell ref="B63:B70"/>
-    <mergeCell ref="C63:C70"/>
-    <mergeCell ref="D63:D70"/>
-    <mergeCell ref="E63:E70"/>
-    <mergeCell ref="F63:F70"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="D71:D78"/>
-    <mergeCell ref="E71:E78"/>
-    <mergeCell ref="F71:F78"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="D45:D54"/>
-    <mergeCell ref="E45:E54"/>
-    <mergeCell ref="F45:F54"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="E55:E62"/>
-    <mergeCell ref="F55:F62"/>
-    <mergeCell ref="B23:B33"/>
-    <mergeCell ref="C23:C33"/>
-    <mergeCell ref="D23:D33"/>
-    <mergeCell ref="E23:E33"/>
-    <mergeCell ref="F23:F33"/>
-    <mergeCell ref="B34:B44"/>
-    <mergeCell ref="C34:C44"/>
-    <mergeCell ref="D34:D44"/>
-    <mergeCell ref="E34:E44"/>
-    <mergeCell ref="F34:F44"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="B11:B22"/>
-    <mergeCell ref="C11:C22"/>
-    <mergeCell ref="D11:D22"/>
-    <mergeCell ref="E11:E22"/>
-    <mergeCell ref="F11:F22"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F299"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="1.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="3">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="3">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="3">
+        <v>8</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="3">
+        <v>9</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="3">
+        <v>10</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="3">
+        <v>11</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="3">
+        <v>12</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="3">
+        <v>13</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="3">
+        <v>14</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="3"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="3"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="3"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="3"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="3"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="3"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="3"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="3">
+        <v>15</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="3"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="3"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="3"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="3"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="3"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="3"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="3"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+    </row>
+    <row r="108" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="3">
+        <v>16</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="3"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="3"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="3"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="3"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="3"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="3"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+    </row>
+    <row r="115" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="3"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+    </row>
+    <row r="116" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="3">
+        <v>17</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="3"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="3"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="3"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="3"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+    </row>
+    <row r="121" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="3"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="3"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="3"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+    </row>
+    <row r="124" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="3">
+        <v>18</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="3"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="3"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="3"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="3"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="3"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B130" s="3"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+    </row>
+    <row r="131" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B131" s="3"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+    </row>
+    <row r="132" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="3">
+        <v>19</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B133" s="3"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+    </row>
+    <row r="134" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="3"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+    </row>
+    <row r="135" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="3"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+    </row>
+    <row r="136" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="3"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+    </row>
+    <row r="137" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B137" s="3"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+    </row>
+    <row r="138" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B138" s="3"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+    </row>
+    <row r="139" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B139" s="3"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+    </row>
+    <row r="140" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="3">
+        <v>20</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="3"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+    </row>
+    <row r="142" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="3"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+    </row>
+    <row r="143" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="3"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+    </row>
+    <row r="144" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="3"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B145" s="3"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+    </row>
+    <row r="146" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B146" s="3"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+    </row>
+    <row r="147" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="3"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+    </row>
+    <row r="148" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B148" s="3"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+    </row>
+    <row r="149" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B149" s="3"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+    </row>
+    <row r="150" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B150" s="3"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+    </row>
+    <row r="151" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B151" s="3"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+    </row>
+    <row r="152" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B152" s="3"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B153" s="3"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+    </row>
+    <row r="154" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B154" s="3"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+    </row>
+    <row r="155" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B155" s="3"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+    </row>
+    <row r="156" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B156" s="3"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B157" s="3"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+    </row>
+    <row r="158" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B158" s="3"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+    </row>
+    <row r="159" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B159" s="3"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+    </row>
+    <row r="160" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B160" s="3"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+    </row>
+    <row r="161" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="3"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+    </row>
+    <row r="162" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="3"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+    </row>
+    <row r="163" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="3"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+    </row>
+    <row r="164" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B164" s="3"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+    </row>
+    <row r="165" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B165" s="3"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+    </row>
+    <row r="166" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B166" s="3"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+    </row>
+    <row r="167" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B167" s="3"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+    </row>
+    <row r="168" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B168" s="3"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+    </row>
+    <row r="169" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B169" s="3"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+    </row>
+    <row r="170" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B170" s="3"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+    </row>
+    <row r="171" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B171" s="3"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+    </row>
+    <row r="172" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B172" s="3"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+    </row>
+    <row r="173" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="3"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+    </row>
+    <row r="174" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B174" s="3"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+    </row>
+    <row r="175" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B175" s="3"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+    </row>
+    <row r="176" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="3"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+    </row>
+    <row r="177" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B177" s="3"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+    </row>
+    <row r="178" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B178" s="3"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+    </row>
+    <row r="179" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="3"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+    </row>
+    <row r="180" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="3"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+    </row>
+    <row r="181" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B181" s="3"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+    </row>
+    <row r="182" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B182" s="3"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+    </row>
+    <row r="183" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B183" s="3"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+    </row>
+    <row r="184" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B184" s="3"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+    </row>
+    <row r="185" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B185" s="3"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+    </row>
+    <row r="186" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B186" s="3"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+    </row>
+    <row r="187" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B187" s="3"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+    </row>
+    <row r="188" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B188" s="3"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+    </row>
+    <row r="189" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B189" s="3"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+    </row>
+    <row r="190" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B190" s="3"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+    </row>
+    <row r="191" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B191" s="3"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+    </row>
+    <row r="192" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="3"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+    </row>
+    <row r="193" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="3"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+    </row>
+    <row r="194" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="3"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+    </row>
+    <row r="195" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="3"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+    </row>
+    <row r="196" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B196" s="3"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+    </row>
+    <row r="197" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B197" s="3"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+    </row>
+    <row r="198" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="3"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+    </row>
+    <row r="199" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="3"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+    </row>
+    <row r="200" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B200" s="3"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+    </row>
+    <row r="201" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B201" s="3"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+    </row>
+    <row r="202" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B202" s="3"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+    </row>
+    <row r="203" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B203" s="3"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
+    </row>
+    <row r="204" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B204" s="3"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+    </row>
+    <row r="205" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B205" s="3"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+    </row>
+    <row r="206" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B206" s="3"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+    </row>
+    <row r="207" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B207" s="3"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+    </row>
+    <row r="208" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B208" s="3"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+    </row>
+    <row r="209" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B209" s="3"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+    </row>
+    <row r="210" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B210" s="3"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+    </row>
+    <row r="211" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B211" s="3"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+    </row>
+    <row r="212" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B212" s="3"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+    </row>
+    <row r="213" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B213" s="3"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+    </row>
+    <row r="214" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B214" s="3"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+    </row>
+    <row r="215" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B215" s="3"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+    </row>
+    <row r="216" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B216" s="3"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+    </row>
+    <row r="217" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B217" s="3"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+    </row>
+    <row r="218" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B218" s="3"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+    </row>
+    <row r="219" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B219" s="3"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="7"/>
+    </row>
+    <row r="220" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B220" s="3"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+    </row>
+    <row r="221" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B221" s="3"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+    </row>
+    <row r="222" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B222" s="3"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+    </row>
+    <row r="223" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B223" s="3"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+    </row>
+    <row r="224" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B224" s="3"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+    </row>
+    <row r="225" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B225" s="3"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+    </row>
+    <row r="226" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B226" s="3"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+    </row>
+    <row r="227" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B227" s="3"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="7"/>
+      <c r="E227" s="7"/>
+      <c r="F227" s="7"/>
+    </row>
+    <row r="228" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B228" s="3"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+    </row>
+    <row r="229" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B229" s="3"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+    </row>
+    <row r="230" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B230" s="3"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+    </row>
+    <row r="231" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B231" s="3"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+    </row>
+    <row r="232" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B232" s="3"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+    </row>
+    <row r="233" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B233" s="3"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+    </row>
+    <row r="234" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B234" s="3"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+    </row>
+    <row r="235" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B235" s="3"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="7"/>
+      <c r="F235" s="7"/>
+    </row>
+    <row r="236" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B236" s="3"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+    </row>
+    <row r="237" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B237" s="3"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+    </row>
+    <row r="238" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B238" s="3"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+    </row>
+    <row r="239" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B239" s="3"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+    </row>
+    <row r="240" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B240" s="3"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+    </row>
+    <row r="241" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B241" s="3"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+    </row>
+    <row r="242" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B242" s="3"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+    </row>
+    <row r="243" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B243" s="3"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+    </row>
+    <row r="244" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B244" s="3"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+    </row>
+    <row r="245" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B245" s="3"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+    </row>
+    <row r="246" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B246" s="3"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+    </row>
+    <row r="247" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B247" s="3"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+    </row>
+    <row r="248" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B248" s="3"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+    </row>
+    <row r="249" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B249" s="3"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+    </row>
+    <row r="250" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B250" s="3"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="6"/>
+    </row>
+    <row r="251" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B251" s="3"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+    </row>
+    <row r="252" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B252" s="3"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+    </row>
+    <row r="253" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B253" s="3"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+    </row>
+    <row r="254" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B254" s="3"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+    </row>
+    <row r="255" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B255" s="3"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+    </row>
+    <row r="256" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B256" s="3"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+    </row>
+    <row r="257" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B257" s="3"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+    </row>
+    <row r="258" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B258" s="3"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+    </row>
+    <row r="259" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B259" s="3"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="7"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
+    </row>
+    <row r="260" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B260" s="3"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+    </row>
+    <row r="261" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B261" s="3"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
+    </row>
+    <row r="262" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B262" s="3"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+    </row>
+    <row r="263" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B263" s="3"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+    </row>
+    <row r="264" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B264" s="3"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
+    </row>
+    <row r="265" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B265" s="3"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+    </row>
+    <row r="266" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B266" s="3"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
+      <c r="F266" s="6"/>
+    </row>
+    <row r="267" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B267" s="3"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
+    </row>
+    <row r="268" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B268" s="3"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
+    </row>
+    <row r="269" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B269" s="3"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+      <c r="F269" s="6"/>
+    </row>
+    <row r="270" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B270" s="3"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+    </row>
+    <row r="271" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B271" s="3"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="6"/>
+    </row>
+    <row r="272" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B272" s="3"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
+    </row>
+    <row r="273" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B273" s="3"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="6"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="6"/>
+    </row>
+    <row r="274" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B274" s="3"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+    </row>
+    <row r="275" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B275" s="3"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
+    </row>
+    <row r="276" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B276" s="3"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="5"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
+    </row>
+    <row r="277" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B277" s="3"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+    </row>
+    <row r="278" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B278" s="3"/>
+      <c r="C278" s="4"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+    </row>
+    <row r="279" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B279" s="3"/>
+      <c r="C279" s="4"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
+    </row>
+    <row r="280" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B280" s="3"/>
+      <c r="C280" s="4"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+    </row>
+    <row r="281" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B281" s="3"/>
+      <c r="C281" s="4"/>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+    </row>
+    <row r="282" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B282" s="3"/>
+      <c r="C282" s="4"/>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+    </row>
+    <row r="283" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B283" s="3"/>
+      <c r="C283" s="4"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="7"/>
+      <c r="F283" s="7"/>
+    </row>
+    <row r="284" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B284" s="3"/>
+      <c r="C284" s="4"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="5"/>
+      <c r="F284" s="5"/>
+    </row>
+    <row r="285" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B285" s="3"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
+    </row>
+    <row r="286" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B286" s="3"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="6"/>
+      <c r="E286" s="6"/>
+      <c r="F286" s="6"/>
+    </row>
+    <row r="287" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B287" s="3"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="6"/>
+      <c r="E287" s="6"/>
+      <c r="F287" s="6"/>
+    </row>
+    <row r="288" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B288" s="3"/>
+      <c r="C288" s="4"/>
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
+    </row>
+    <row r="289" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B289" s="3"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
+    </row>
+    <row r="290" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B290" s="3"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="6"/>
+      <c r="E290" s="6"/>
+      <c r="F290" s="6"/>
+    </row>
+    <row r="291" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B291" s="3"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="7"/>
+      <c r="E291" s="7"/>
+      <c r="F291" s="7"/>
+    </row>
+    <row r="292" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B292" s="3"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="5"/>
+      <c r="F292" s="5"/>
+    </row>
+    <row r="293" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B293" s="3"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="6"/>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
+    </row>
+    <row r="294" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B294" s="3"/>
+      <c r="C294" s="4"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="6"/>
+      <c r="F294" s="6"/>
+    </row>
+    <row r="295" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B295" s="3"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="6"/>
+      <c r="E295" s="6"/>
+      <c r="F295" s="6"/>
+    </row>
+    <row r="296" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B296" s="3"/>
+      <c r="C296" s="4"/>
+      <c r="D296" s="6"/>
+      <c r="E296" s="6"/>
+      <c r="F296" s="6"/>
+    </row>
+    <row r="297" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B297" s="3"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="6"/>
+      <c r="F297" s="6"/>
+    </row>
+    <row r="298" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B298" s="3"/>
+      <c r="C298" s="4"/>
+      <c r="D298" s="6"/>
+      <c r="E298" s="6"/>
+      <c r="F298" s="6"/>
+    </row>
+    <row r="299" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B299" s="3"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="7"/>
+      <c r="E299" s="7"/>
+      <c r="F299" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="195">
+    <mergeCell ref="B292:B299"/>
+    <mergeCell ref="C292:C299"/>
+    <mergeCell ref="D292:D299"/>
+    <mergeCell ref="E292:E299"/>
+    <mergeCell ref="F292:F299"/>
+    <mergeCell ref="B276:B283"/>
+    <mergeCell ref="C276:C283"/>
+    <mergeCell ref="D276:D283"/>
+    <mergeCell ref="E276:E283"/>
+    <mergeCell ref="F276:F283"/>
+    <mergeCell ref="B284:B291"/>
+    <mergeCell ref="C284:C291"/>
+    <mergeCell ref="D284:D291"/>
+    <mergeCell ref="E284:E291"/>
+    <mergeCell ref="F284:F291"/>
+    <mergeCell ref="B260:B267"/>
+    <mergeCell ref="C260:C267"/>
+    <mergeCell ref="D260:D267"/>
+    <mergeCell ref="E260:E267"/>
+    <mergeCell ref="F260:F267"/>
+    <mergeCell ref="B268:B275"/>
+    <mergeCell ref="C268:C275"/>
+    <mergeCell ref="D268:D275"/>
+    <mergeCell ref="E268:E275"/>
+    <mergeCell ref="F268:F275"/>
+    <mergeCell ref="B244:B251"/>
+    <mergeCell ref="C244:C251"/>
+    <mergeCell ref="D244:D251"/>
+    <mergeCell ref="E244:E251"/>
+    <mergeCell ref="F244:F251"/>
+    <mergeCell ref="B252:B259"/>
+    <mergeCell ref="C252:C259"/>
+    <mergeCell ref="D252:D259"/>
+    <mergeCell ref="E252:E259"/>
+    <mergeCell ref="F252:F259"/>
+    <mergeCell ref="B228:B235"/>
+    <mergeCell ref="C228:C235"/>
+    <mergeCell ref="D228:D235"/>
+    <mergeCell ref="E228:E235"/>
+    <mergeCell ref="F228:F235"/>
+    <mergeCell ref="B236:B243"/>
+    <mergeCell ref="C236:C243"/>
+    <mergeCell ref="D236:D243"/>
+    <mergeCell ref="E236:E243"/>
+    <mergeCell ref="F236:F243"/>
+    <mergeCell ref="B212:B219"/>
+    <mergeCell ref="C212:C219"/>
+    <mergeCell ref="D212:D219"/>
+    <mergeCell ref="E212:E219"/>
+    <mergeCell ref="F212:F219"/>
+    <mergeCell ref="B220:B227"/>
+    <mergeCell ref="C220:C227"/>
+    <mergeCell ref="D220:D227"/>
+    <mergeCell ref="E220:E227"/>
+    <mergeCell ref="F220:F227"/>
+    <mergeCell ref="B196:B203"/>
+    <mergeCell ref="C196:C203"/>
+    <mergeCell ref="D196:D203"/>
+    <mergeCell ref="E196:E203"/>
+    <mergeCell ref="F196:F203"/>
+    <mergeCell ref="B204:B211"/>
+    <mergeCell ref="C204:C211"/>
+    <mergeCell ref="D204:D211"/>
+    <mergeCell ref="E204:E211"/>
+    <mergeCell ref="F204:F211"/>
+    <mergeCell ref="B180:B187"/>
+    <mergeCell ref="C180:C187"/>
+    <mergeCell ref="D180:D187"/>
+    <mergeCell ref="E180:E187"/>
+    <mergeCell ref="F180:F187"/>
+    <mergeCell ref="B188:B195"/>
+    <mergeCell ref="C188:C195"/>
+    <mergeCell ref="D188:D195"/>
+    <mergeCell ref="E188:E195"/>
+    <mergeCell ref="F188:F195"/>
+    <mergeCell ref="B164:B171"/>
+    <mergeCell ref="C164:C171"/>
+    <mergeCell ref="D164:D171"/>
+    <mergeCell ref="E164:E171"/>
+    <mergeCell ref="F164:F171"/>
+    <mergeCell ref="B172:B179"/>
+    <mergeCell ref="C172:C179"/>
+    <mergeCell ref="D172:D179"/>
+    <mergeCell ref="E172:E179"/>
+    <mergeCell ref="F172:F179"/>
+    <mergeCell ref="B148:B155"/>
+    <mergeCell ref="C148:C155"/>
+    <mergeCell ref="D148:D155"/>
+    <mergeCell ref="E148:E155"/>
+    <mergeCell ref="F148:F155"/>
+    <mergeCell ref="B156:B163"/>
+    <mergeCell ref="C156:C163"/>
+    <mergeCell ref="D156:D163"/>
+    <mergeCell ref="E156:E163"/>
+    <mergeCell ref="F156:F163"/>
+    <mergeCell ref="B132:B139"/>
+    <mergeCell ref="C132:C139"/>
+    <mergeCell ref="D132:D139"/>
+    <mergeCell ref="E132:E139"/>
+    <mergeCell ref="F132:F139"/>
+    <mergeCell ref="B140:B147"/>
+    <mergeCell ref="C140:C147"/>
+    <mergeCell ref="D140:D147"/>
+    <mergeCell ref="E140:E147"/>
+    <mergeCell ref="F140:F147"/>
+    <mergeCell ref="B116:B123"/>
+    <mergeCell ref="C116:C123"/>
+    <mergeCell ref="D116:D123"/>
+    <mergeCell ref="E116:E123"/>
+    <mergeCell ref="F116:F123"/>
+    <mergeCell ref="B124:B131"/>
+    <mergeCell ref="C124:C131"/>
+    <mergeCell ref="D124:D131"/>
+    <mergeCell ref="E124:E131"/>
+    <mergeCell ref="F124:F131"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="C100:C107"/>
+    <mergeCell ref="D100:D107"/>
+    <mergeCell ref="E100:E107"/>
+    <mergeCell ref="F100:F107"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="C108:C115"/>
+    <mergeCell ref="D108:D115"/>
+    <mergeCell ref="E108:E115"/>
+    <mergeCell ref="F108:F115"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="C83:C91"/>
+    <mergeCell ref="D83:D91"/>
+    <mergeCell ref="E83:E91"/>
+    <mergeCell ref="F83:F91"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="D92:D99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="F92:F99"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="D75:D82"/>
+    <mergeCell ref="E75:E82"/>
+    <mergeCell ref="F75:F82"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="D66:D70"/>
+    <mergeCell ref="E66:E70"/>
+    <mergeCell ref="F66:F70"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="D47:D53"/>
+    <mergeCell ref="E47:E53"/>
+    <mergeCell ref="F47:F53"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="D54:D60"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="F54:F60"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="E39:E46"/>
+    <mergeCell ref="F39:F46"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="D17:D25"/>
+    <mergeCell ref="E17:E25"/>
+    <mergeCell ref="F17:F25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="E8:E16"/>
+    <mergeCell ref="F8:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
+++ b/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="录制接口" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="154">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,10 +119,6 @@
   </si>
   <si>
     <t>http://192.165.56.18:8094/monitor/record/stop/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.165.56.18:8094/monitor/record/remove/file/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1217,12 +1213,35 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>获取文件下载地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/record/remove/file/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/record/download/url/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url参数：Long id 文件id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    downloadUrl:下载地址,
+    duration:文件时长 （单位：秒）
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,6 +1262,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1324,7 +1350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1345,6 +1371,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1650,7 +1691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1753,7 +1796,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>14</v>
@@ -1840,7 +1883,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>15</v>
@@ -1935,13 +1978,13 @@
         <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>15</v>
@@ -2014,7 +2057,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>15</v>
@@ -2485,66 +2528,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B11:B21"/>
+    <mergeCell ref="C11:C21"/>
+    <mergeCell ref="D11:D21"/>
+    <mergeCell ref="E11:E21"/>
+    <mergeCell ref="F11:F21"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="C35:C43"/>
+    <mergeCell ref="D35:D43"/>
+    <mergeCell ref="E35:E43"/>
+    <mergeCell ref="F35:F43"/>
+    <mergeCell ref="B22:B34"/>
+    <mergeCell ref="C22:C34"/>
+    <mergeCell ref="D22:D34"/>
+    <mergeCell ref="E22:E34"/>
+    <mergeCell ref="F22:F34"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="F54:F61"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="D44:D53"/>
+    <mergeCell ref="E44:E53"/>
+    <mergeCell ref="F44:F53"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="C86:C93"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="C78:C85"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="E78:E85"/>
+    <mergeCell ref="F78:F85"/>
+    <mergeCell ref="B102:B109"/>
+    <mergeCell ref="C102:C109"/>
+    <mergeCell ref="D102:D109"/>
+    <mergeCell ref="E102:E109"/>
+    <mergeCell ref="F102:F109"/>
     <mergeCell ref="B94:B101"/>
     <mergeCell ref="C94:C101"/>
     <mergeCell ref="D94:D101"/>
     <mergeCell ref="E94:E101"/>
     <mergeCell ref="F94:F101"/>
-    <mergeCell ref="B102:B109"/>
-    <mergeCell ref="C102:C109"/>
-    <mergeCell ref="D102:D109"/>
-    <mergeCell ref="E102:E109"/>
-    <mergeCell ref="F102:F109"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="C78:C85"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="E78:E85"/>
-    <mergeCell ref="F78:F85"/>
-    <mergeCell ref="B86:B93"/>
-    <mergeCell ref="C86:C93"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="B44:B53"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="D44:D53"/>
-    <mergeCell ref="E44:E53"/>
-    <mergeCell ref="F44:F53"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="E54:E61"/>
-    <mergeCell ref="F54:F61"/>
-    <mergeCell ref="B22:B34"/>
-    <mergeCell ref="C22:C34"/>
-    <mergeCell ref="D22:D34"/>
-    <mergeCell ref="E22:E34"/>
-    <mergeCell ref="F22:F34"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="C35:C43"/>
-    <mergeCell ref="D35:D43"/>
-    <mergeCell ref="E35:E43"/>
-    <mergeCell ref="F35:F43"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="B11:B21"/>
-    <mergeCell ref="C11:C21"/>
-    <mergeCell ref="D11:D21"/>
-    <mergeCell ref="E11:E21"/>
-    <mergeCell ref="F11:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2556,7 +2599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F117"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2593,14 +2636,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2720,16 +2763,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2814,16 +2857,16 @@
         <v>3</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2901,16 +2944,16 @@
         <v>4</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2988,13 +3031,13 @@
         <v>5</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="F54" s="5"/>
     </row>
@@ -3055,10 +3098,10 @@
         <v>17</v>
       </c>
       <c r="D62" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="F62" s="5"/>
     </row>
@@ -3112,60 +3155,70 @@
       <c r="F69" s="7"/>
     </row>
     <row r="70" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="3"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="B70" s="8">
+        <v>7</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="71" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="3"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="3"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="3"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="3"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="3"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="3"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
     </row>
     <row r="78" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="3"/>
@@ -3449,66 +3502,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="C20:C31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="F20:F31"/>
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="C3:C19"/>
+    <mergeCell ref="D3:D19"/>
+    <mergeCell ref="E3:E19"/>
+    <mergeCell ref="F3:F19"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D43:D53"/>
+    <mergeCell ref="E43:E53"/>
+    <mergeCell ref="F43:F53"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="C32:C42"/>
+    <mergeCell ref="D32:D42"/>
+    <mergeCell ref="E32:E42"/>
+    <mergeCell ref="F32:F42"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="F54:F61"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="C78:C85"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="E78:E85"/>
+    <mergeCell ref="F78:F85"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="C94:C101"/>
+    <mergeCell ref="D94:D101"/>
+    <mergeCell ref="E94:E101"/>
+    <mergeCell ref="F94:F101"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="C86:C93"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
+    <mergeCell ref="B110:B117"/>
+    <mergeCell ref="C110:C117"/>
+    <mergeCell ref="D110:D117"/>
+    <mergeCell ref="E110:E117"/>
+    <mergeCell ref="F110:F117"/>
     <mergeCell ref="B102:B109"/>
     <mergeCell ref="C102:C109"/>
     <mergeCell ref="D102:D109"/>
     <mergeCell ref="E102:E109"/>
     <mergeCell ref="F102:F109"/>
-    <mergeCell ref="B110:B117"/>
-    <mergeCell ref="C110:C117"/>
-    <mergeCell ref="D110:D117"/>
-    <mergeCell ref="E110:E117"/>
-    <mergeCell ref="F110:F117"/>
-    <mergeCell ref="B86:B93"/>
-    <mergeCell ref="C86:C93"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="C94:C101"/>
-    <mergeCell ref="D94:D101"/>
-    <mergeCell ref="E94:E101"/>
-    <mergeCell ref="F94:F101"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="C78:C85"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="E78:E85"/>
-    <mergeCell ref="F78:F85"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="E54:E61"/>
-    <mergeCell ref="F54:F61"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="B32:B42"/>
-    <mergeCell ref="C32:C42"/>
-    <mergeCell ref="D32:D42"/>
-    <mergeCell ref="E32:E42"/>
-    <mergeCell ref="F32:F42"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D43:D53"/>
-    <mergeCell ref="E43:E53"/>
-    <mergeCell ref="F43:F53"/>
-    <mergeCell ref="B3:B19"/>
-    <mergeCell ref="C3:C19"/>
-    <mergeCell ref="D3:D19"/>
-    <mergeCell ref="E3:E19"/>
-    <mergeCell ref="F3:F19"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="C20:C31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="E20:E31"/>
-    <mergeCell ref="F20:F31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3557,14 +3610,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3621,16 +3674,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3715,16 +3768,16 @@
         <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3802,16 +3855,16 @@
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3889,16 +3942,16 @@
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3969,13 +4022,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F55" s="5"/>
     </row>
@@ -4033,16 +4086,16 @@
         <v>7</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4099,14 +4152,14 @@
         <v>8</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4163,16 +4216,16 @@
         <v>9</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4229,13 +4282,13 @@
         <v>10</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F87" s="5"/>
     </row>
@@ -4293,14 +4346,14 @@
         <v>11</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4466,66 +4519,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B95:B110"/>
+    <mergeCell ref="C95:C110"/>
+    <mergeCell ref="D95:D110"/>
+    <mergeCell ref="E95:E110"/>
+    <mergeCell ref="F95:F110"/>
+    <mergeCell ref="B111:B118"/>
+    <mergeCell ref="C111:C118"/>
+    <mergeCell ref="D111:D118"/>
+    <mergeCell ref="E111:E118"/>
+    <mergeCell ref="F111:F118"/>
+    <mergeCell ref="B79:B86"/>
+    <mergeCell ref="C79:C86"/>
+    <mergeCell ref="D79:D86"/>
+    <mergeCell ref="E79:E86"/>
+    <mergeCell ref="F79:F86"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="C87:C94"/>
+    <mergeCell ref="D87:D94"/>
+    <mergeCell ref="E87:E94"/>
+    <mergeCell ref="F87:F94"/>
+    <mergeCell ref="B63:B70"/>
+    <mergeCell ref="C63:C70"/>
+    <mergeCell ref="D63:D70"/>
+    <mergeCell ref="E63:E70"/>
+    <mergeCell ref="F63:F70"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="D71:D78"/>
+    <mergeCell ref="E71:E78"/>
+    <mergeCell ref="F71:F78"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="D45:D54"/>
+    <mergeCell ref="E45:E54"/>
+    <mergeCell ref="F45:F54"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="F55:F62"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="C23:C33"/>
+    <mergeCell ref="D23:D33"/>
+    <mergeCell ref="E23:E33"/>
+    <mergeCell ref="F23:F33"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="C34:C44"/>
+    <mergeCell ref="D34:D44"/>
+    <mergeCell ref="E34:E44"/>
+    <mergeCell ref="F34:F44"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="F3:F10"/>
     <mergeCell ref="B11:B22"/>
     <mergeCell ref="C11:C22"/>
     <mergeCell ref="D11:D22"/>
     <mergeCell ref="E11:E22"/>
     <mergeCell ref="F11:F22"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="B34:B44"/>
-    <mergeCell ref="C34:C44"/>
-    <mergeCell ref="D34:D44"/>
-    <mergeCell ref="E34:E44"/>
-    <mergeCell ref="F34:F44"/>
-    <mergeCell ref="B23:B33"/>
-    <mergeCell ref="C23:C33"/>
-    <mergeCell ref="D23:D33"/>
-    <mergeCell ref="E23:E33"/>
-    <mergeCell ref="F23:F33"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="E55:E62"/>
-    <mergeCell ref="F55:F62"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="D45:D54"/>
-    <mergeCell ref="E45:E54"/>
-    <mergeCell ref="F45:F54"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="D71:D78"/>
-    <mergeCell ref="E71:E78"/>
-    <mergeCell ref="F71:F78"/>
-    <mergeCell ref="B63:B70"/>
-    <mergeCell ref="C63:C70"/>
-    <mergeCell ref="D63:D70"/>
-    <mergeCell ref="E63:E70"/>
-    <mergeCell ref="F63:F70"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="C87:C94"/>
-    <mergeCell ref="D87:D94"/>
-    <mergeCell ref="E87:E94"/>
-    <mergeCell ref="F87:F94"/>
-    <mergeCell ref="B79:B86"/>
-    <mergeCell ref="C79:C86"/>
-    <mergeCell ref="D79:D86"/>
-    <mergeCell ref="E79:E86"/>
-    <mergeCell ref="F79:F86"/>
-    <mergeCell ref="B111:B118"/>
-    <mergeCell ref="C111:C118"/>
-    <mergeCell ref="D111:D118"/>
-    <mergeCell ref="E111:E118"/>
-    <mergeCell ref="F111:F118"/>
-    <mergeCell ref="B95:B110"/>
-    <mergeCell ref="C95:C110"/>
-    <mergeCell ref="D95:D110"/>
-    <mergeCell ref="E95:E110"/>
-    <mergeCell ref="F95:F110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4574,14 +4627,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4617,16 +4670,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4690,16 +4743,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4763,16 +4816,16 @@
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4822,13 +4875,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F33" s="5"/>
     </row>
@@ -4872,16 +4925,16 @@
         <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4938,16 +4991,16 @@
         <v>7</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4997,16 +5050,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5056,16 +5109,16 @@
         <v>9</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D61" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5101,16 +5154,16 @@
         <v>10</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5146,13 +5199,13 @@
         <v>11</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F71" s="5"/>
     </row>
@@ -5182,14 +5235,14 @@
         <v>12</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5246,16 +5299,16 @@
         <v>13</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5319,16 +5372,16 @@
         <v>14</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5385,16 +5438,16 @@
         <v>15</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E100" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F100" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5451,16 +5504,16 @@
         <v>16</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5517,16 +5570,16 @@
         <v>17</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5583,13 +5636,13 @@
         <v>18</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="F124" s="5"/>
     </row>
@@ -5647,16 +5700,16 @@
         <v>19</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5713,13 +5766,13 @@
         <v>20</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F140" s="5"/>
     </row>
@@ -6838,6 +6891,186 @@
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="E8:E16"/>
+    <mergeCell ref="F8:F16"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="D17:D25"/>
+    <mergeCell ref="E17:E25"/>
+    <mergeCell ref="F17:F25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="E39:E46"/>
+    <mergeCell ref="F39:F46"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="D47:D53"/>
+    <mergeCell ref="E47:E53"/>
+    <mergeCell ref="F47:F53"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="D54:D60"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="F54:F60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="D66:D70"/>
+    <mergeCell ref="E66:E70"/>
+    <mergeCell ref="F66:F70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="D75:D82"/>
+    <mergeCell ref="E75:E82"/>
+    <mergeCell ref="F75:F82"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="C83:C91"/>
+    <mergeCell ref="D83:D91"/>
+    <mergeCell ref="E83:E91"/>
+    <mergeCell ref="F83:F91"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="D92:D99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="F92:F99"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="C100:C107"/>
+    <mergeCell ref="D100:D107"/>
+    <mergeCell ref="E100:E107"/>
+    <mergeCell ref="F100:F107"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="C108:C115"/>
+    <mergeCell ref="D108:D115"/>
+    <mergeCell ref="E108:E115"/>
+    <mergeCell ref="F108:F115"/>
+    <mergeCell ref="B116:B123"/>
+    <mergeCell ref="C116:C123"/>
+    <mergeCell ref="D116:D123"/>
+    <mergeCell ref="E116:E123"/>
+    <mergeCell ref="F116:F123"/>
+    <mergeCell ref="B124:B131"/>
+    <mergeCell ref="C124:C131"/>
+    <mergeCell ref="D124:D131"/>
+    <mergeCell ref="E124:E131"/>
+    <mergeCell ref="F124:F131"/>
+    <mergeCell ref="B132:B139"/>
+    <mergeCell ref="C132:C139"/>
+    <mergeCell ref="D132:D139"/>
+    <mergeCell ref="E132:E139"/>
+    <mergeCell ref="F132:F139"/>
+    <mergeCell ref="B140:B147"/>
+    <mergeCell ref="C140:C147"/>
+    <mergeCell ref="D140:D147"/>
+    <mergeCell ref="E140:E147"/>
+    <mergeCell ref="F140:F147"/>
+    <mergeCell ref="B148:B155"/>
+    <mergeCell ref="C148:C155"/>
+    <mergeCell ref="D148:D155"/>
+    <mergeCell ref="E148:E155"/>
+    <mergeCell ref="F148:F155"/>
+    <mergeCell ref="B156:B163"/>
+    <mergeCell ref="C156:C163"/>
+    <mergeCell ref="D156:D163"/>
+    <mergeCell ref="E156:E163"/>
+    <mergeCell ref="F156:F163"/>
+    <mergeCell ref="B164:B171"/>
+    <mergeCell ref="C164:C171"/>
+    <mergeCell ref="D164:D171"/>
+    <mergeCell ref="E164:E171"/>
+    <mergeCell ref="F164:F171"/>
+    <mergeCell ref="B172:B179"/>
+    <mergeCell ref="C172:C179"/>
+    <mergeCell ref="D172:D179"/>
+    <mergeCell ref="E172:E179"/>
+    <mergeCell ref="F172:F179"/>
+    <mergeCell ref="B180:B187"/>
+    <mergeCell ref="C180:C187"/>
+    <mergeCell ref="D180:D187"/>
+    <mergeCell ref="E180:E187"/>
+    <mergeCell ref="F180:F187"/>
+    <mergeCell ref="B188:B195"/>
+    <mergeCell ref="C188:C195"/>
+    <mergeCell ref="D188:D195"/>
+    <mergeCell ref="E188:E195"/>
+    <mergeCell ref="F188:F195"/>
+    <mergeCell ref="B196:B203"/>
+    <mergeCell ref="C196:C203"/>
+    <mergeCell ref="D196:D203"/>
+    <mergeCell ref="E196:E203"/>
+    <mergeCell ref="F196:F203"/>
+    <mergeCell ref="B204:B211"/>
+    <mergeCell ref="C204:C211"/>
+    <mergeCell ref="D204:D211"/>
+    <mergeCell ref="E204:E211"/>
+    <mergeCell ref="F204:F211"/>
+    <mergeCell ref="B212:B219"/>
+    <mergeCell ref="C212:C219"/>
+    <mergeCell ref="D212:D219"/>
+    <mergeCell ref="E212:E219"/>
+    <mergeCell ref="F212:F219"/>
+    <mergeCell ref="B220:B227"/>
+    <mergeCell ref="C220:C227"/>
+    <mergeCell ref="D220:D227"/>
+    <mergeCell ref="E220:E227"/>
+    <mergeCell ref="F220:F227"/>
+    <mergeCell ref="B228:B235"/>
+    <mergeCell ref="C228:C235"/>
+    <mergeCell ref="D228:D235"/>
+    <mergeCell ref="E228:E235"/>
+    <mergeCell ref="F228:F235"/>
+    <mergeCell ref="B236:B243"/>
+    <mergeCell ref="C236:C243"/>
+    <mergeCell ref="D236:D243"/>
+    <mergeCell ref="E236:E243"/>
+    <mergeCell ref="F236:F243"/>
+    <mergeCell ref="B244:B251"/>
+    <mergeCell ref="C244:C251"/>
+    <mergeCell ref="D244:D251"/>
+    <mergeCell ref="E244:E251"/>
+    <mergeCell ref="F244:F251"/>
+    <mergeCell ref="B252:B259"/>
+    <mergeCell ref="C252:C259"/>
+    <mergeCell ref="D252:D259"/>
+    <mergeCell ref="E252:E259"/>
+    <mergeCell ref="F252:F259"/>
+    <mergeCell ref="B260:B267"/>
+    <mergeCell ref="C260:C267"/>
+    <mergeCell ref="D260:D267"/>
+    <mergeCell ref="E260:E267"/>
+    <mergeCell ref="F260:F267"/>
+    <mergeCell ref="B268:B275"/>
+    <mergeCell ref="C268:C275"/>
+    <mergeCell ref="D268:D275"/>
+    <mergeCell ref="E268:E275"/>
+    <mergeCell ref="F268:F275"/>
     <mergeCell ref="B292:B299"/>
     <mergeCell ref="C292:C299"/>
     <mergeCell ref="D292:D299"/>
@@ -6853,186 +7086,6 @@
     <mergeCell ref="D284:D291"/>
     <mergeCell ref="E284:E291"/>
     <mergeCell ref="F284:F291"/>
-    <mergeCell ref="B260:B267"/>
-    <mergeCell ref="C260:C267"/>
-    <mergeCell ref="D260:D267"/>
-    <mergeCell ref="E260:E267"/>
-    <mergeCell ref="F260:F267"/>
-    <mergeCell ref="B268:B275"/>
-    <mergeCell ref="C268:C275"/>
-    <mergeCell ref="D268:D275"/>
-    <mergeCell ref="E268:E275"/>
-    <mergeCell ref="F268:F275"/>
-    <mergeCell ref="B244:B251"/>
-    <mergeCell ref="C244:C251"/>
-    <mergeCell ref="D244:D251"/>
-    <mergeCell ref="E244:E251"/>
-    <mergeCell ref="F244:F251"/>
-    <mergeCell ref="B252:B259"/>
-    <mergeCell ref="C252:C259"/>
-    <mergeCell ref="D252:D259"/>
-    <mergeCell ref="E252:E259"/>
-    <mergeCell ref="F252:F259"/>
-    <mergeCell ref="B228:B235"/>
-    <mergeCell ref="C228:C235"/>
-    <mergeCell ref="D228:D235"/>
-    <mergeCell ref="E228:E235"/>
-    <mergeCell ref="F228:F235"/>
-    <mergeCell ref="B236:B243"/>
-    <mergeCell ref="C236:C243"/>
-    <mergeCell ref="D236:D243"/>
-    <mergeCell ref="E236:E243"/>
-    <mergeCell ref="F236:F243"/>
-    <mergeCell ref="B212:B219"/>
-    <mergeCell ref="C212:C219"/>
-    <mergeCell ref="D212:D219"/>
-    <mergeCell ref="E212:E219"/>
-    <mergeCell ref="F212:F219"/>
-    <mergeCell ref="B220:B227"/>
-    <mergeCell ref="C220:C227"/>
-    <mergeCell ref="D220:D227"/>
-    <mergeCell ref="E220:E227"/>
-    <mergeCell ref="F220:F227"/>
-    <mergeCell ref="B196:B203"/>
-    <mergeCell ref="C196:C203"/>
-    <mergeCell ref="D196:D203"/>
-    <mergeCell ref="E196:E203"/>
-    <mergeCell ref="F196:F203"/>
-    <mergeCell ref="B204:B211"/>
-    <mergeCell ref="C204:C211"/>
-    <mergeCell ref="D204:D211"/>
-    <mergeCell ref="E204:E211"/>
-    <mergeCell ref="F204:F211"/>
-    <mergeCell ref="B180:B187"/>
-    <mergeCell ref="C180:C187"/>
-    <mergeCell ref="D180:D187"/>
-    <mergeCell ref="E180:E187"/>
-    <mergeCell ref="F180:F187"/>
-    <mergeCell ref="B188:B195"/>
-    <mergeCell ref="C188:C195"/>
-    <mergeCell ref="D188:D195"/>
-    <mergeCell ref="E188:E195"/>
-    <mergeCell ref="F188:F195"/>
-    <mergeCell ref="B164:B171"/>
-    <mergeCell ref="C164:C171"/>
-    <mergeCell ref="D164:D171"/>
-    <mergeCell ref="E164:E171"/>
-    <mergeCell ref="F164:F171"/>
-    <mergeCell ref="B172:B179"/>
-    <mergeCell ref="C172:C179"/>
-    <mergeCell ref="D172:D179"/>
-    <mergeCell ref="E172:E179"/>
-    <mergeCell ref="F172:F179"/>
-    <mergeCell ref="B148:B155"/>
-    <mergeCell ref="C148:C155"/>
-    <mergeCell ref="D148:D155"/>
-    <mergeCell ref="E148:E155"/>
-    <mergeCell ref="F148:F155"/>
-    <mergeCell ref="B156:B163"/>
-    <mergeCell ref="C156:C163"/>
-    <mergeCell ref="D156:D163"/>
-    <mergeCell ref="E156:E163"/>
-    <mergeCell ref="F156:F163"/>
-    <mergeCell ref="B132:B139"/>
-    <mergeCell ref="C132:C139"/>
-    <mergeCell ref="D132:D139"/>
-    <mergeCell ref="E132:E139"/>
-    <mergeCell ref="F132:F139"/>
-    <mergeCell ref="B140:B147"/>
-    <mergeCell ref="C140:C147"/>
-    <mergeCell ref="D140:D147"/>
-    <mergeCell ref="E140:E147"/>
-    <mergeCell ref="F140:F147"/>
-    <mergeCell ref="B116:B123"/>
-    <mergeCell ref="C116:C123"/>
-    <mergeCell ref="D116:D123"/>
-    <mergeCell ref="E116:E123"/>
-    <mergeCell ref="F116:F123"/>
-    <mergeCell ref="B124:B131"/>
-    <mergeCell ref="C124:C131"/>
-    <mergeCell ref="D124:D131"/>
-    <mergeCell ref="E124:E131"/>
-    <mergeCell ref="F124:F131"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="C100:C107"/>
-    <mergeCell ref="D100:D107"/>
-    <mergeCell ref="E100:E107"/>
-    <mergeCell ref="F100:F107"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="C108:C115"/>
-    <mergeCell ref="D108:D115"/>
-    <mergeCell ref="E108:E115"/>
-    <mergeCell ref="F108:F115"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="C83:C91"/>
-    <mergeCell ref="D83:D91"/>
-    <mergeCell ref="E83:E91"/>
-    <mergeCell ref="F83:F91"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="D92:D99"/>
-    <mergeCell ref="E92:E99"/>
-    <mergeCell ref="F92:F99"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="C75:C82"/>
-    <mergeCell ref="D75:D82"/>
-    <mergeCell ref="E75:E82"/>
-    <mergeCell ref="F75:F82"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="D66:D70"/>
-    <mergeCell ref="E66:E70"/>
-    <mergeCell ref="F66:F70"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="D47:D53"/>
-    <mergeCell ref="E47:E53"/>
-    <mergeCell ref="F47:F53"/>
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="D54:D60"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="F54:F60"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="D39:D46"/>
-    <mergeCell ref="E39:E46"/>
-    <mergeCell ref="F39:F46"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="D17:D25"/>
-    <mergeCell ref="E17:E25"/>
-    <mergeCell ref="F17:F25"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C16"/>
-    <mergeCell ref="D8:D16"/>
-    <mergeCell ref="E8:E16"/>
-    <mergeCell ref="F8:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
+++ b/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="录制接口" sheetId="4" r:id="rId1"/>
@@ -652,10 +652,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.165.56.18:8094/monitor/subtitle/load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分页查询用户创建的字幕列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,10 +666,6 @@
   </si>
   <si>
     <t>添加字幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.165.56.18:8094/monitor/subtitle/monitor/subtitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1234,6 +1226,14 @@
     downloadUrl:下载地址,
     duration:文件时长 （单位：秒）
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/subtitle/load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/subtitle/load/all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2528,66 +2528,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="C94:C101"/>
+    <mergeCell ref="D94:D101"/>
+    <mergeCell ref="E94:E101"/>
+    <mergeCell ref="F94:F101"/>
+    <mergeCell ref="B102:B109"/>
+    <mergeCell ref="C102:C109"/>
+    <mergeCell ref="D102:D109"/>
+    <mergeCell ref="E102:E109"/>
+    <mergeCell ref="F102:F109"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="C78:C85"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="E78:E85"/>
+    <mergeCell ref="F78:F85"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="C86:C93"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="D44:D53"/>
+    <mergeCell ref="E44:E53"/>
+    <mergeCell ref="F44:F53"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="F54:F61"/>
+    <mergeCell ref="B22:B34"/>
+    <mergeCell ref="C22:C34"/>
+    <mergeCell ref="D22:D34"/>
+    <mergeCell ref="E22:E34"/>
+    <mergeCell ref="F22:F34"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="C35:C43"/>
+    <mergeCell ref="D35:D43"/>
+    <mergeCell ref="E35:E43"/>
+    <mergeCell ref="F35:F43"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="F3:F10"/>
     <mergeCell ref="B11:B21"/>
     <mergeCell ref="C11:C21"/>
     <mergeCell ref="D11:D21"/>
     <mergeCell ref="E11:E21"/>
     <mergeCell ref="F11:F21"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="C35:C43"/>
-    <mergeCell ref="D35:D43"/>
-    <mergeCell ref="E35:E43"/>
-    <mergeCell ref="F35:F43"/>
-    <mergeCell ref="B22:B34"/>
-    <mergeCell ref="C22:C34"/>
-    <mergeCell ref="D22:D34"/>
-    <mergeCell ref="E22:E34"/>
-    <mergeCell ref="F22:F34"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="E54:E61"/>
-    <mergeCell ref="F54:F61"/>
-    <mergeCell ref="B44:B53"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="D44:D53"/>
-    <mergeCell ref="E44:E53"/>
-    <mergeCell ref="F44:F53"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="B86:B93"/>
-    <mergeCell ref="C86:C93"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="C78:C85"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="E78:E85"/>
-    <mergeCell ref="F78:F85"/>
-    <mergeCell ref="B102:B109"/>
-    <mergeCell ref="C102:C109"/>
-    <mergeCell ref="D102:D109"/>
-    <mergeCell ref="E102:E109"/>
-    <mergeCell ref="F102:F109"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="C94:C101"/>
-    <mergeCell ref="D94:D101"/>
-    <mergeCell ref="E94:E101"/>
-    <mergeCell ref="F94:F101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2599,7 +2599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3098,7 +3100,7 @@
         <v>17</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>19</v>
@@ -3159,16 +3161,16 @@
         <v>7</v>
       </c>
       <c r="C70" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="E70" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3502,66 +3504,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B102:B109"/>
+    <mergeCell ref="C102:C109"/>
+    <mergeCell ref="D102:D109"/>
+    <mergeCell ref="E102:E109"/>
+    <mergeCell ref="F102:F109"/>
+    <mergeCell ref="B110:B117"/>
+    <mergeCell ref="C110:C117"/>
+    <mergeCell ref="D110:D117"/>
+    <mergeCell ref="E110:E117"/>
+    <mergeCell ref="F110:F117"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="C86:C93"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="C94:C101"/>
+    <mergeCell ref="D94:D101"/>
+    <mergeCell ref="E94:E101"/>
+    <mergeCell ref="F94:F101"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="B78:B85"/>
+    <mergeCell ref="C78:C85"/>
+    <mergeCell ref="D78:D85"/>
+    <mergeCell ref="E78:E85"/>
+    <mergeCell ref="F78:F85"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="D54:D61"/>
+    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="F54:F61"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="C32:C42"/>
+    <mergeCell ref="D32:D42"/>
+    <mergeCell ref="E32:E42"/>
+    <mergeCell ref="F32:F42"/>
+    <mergeCell ref="B43:B53"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D43:D53"/>
+    <mergeCell ref="E43:E53"/>
+    <mergeCell ref="F43:F53"/>
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="C3:C19"/>
+    <mergeCell ref="D3:D19"/>
+    <mergeCell ref="E3:E19"/>
+    <mergeCell ref="F3:F19"/>
     <mergeCell ref="B20:B31"/>
     <mergeCell ref="C20:C31"/>
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="E20:E31"/>
     <mergeCell ref="F20:F31"/>
-    <mergeCell ref="B3:B19"/>
-    <mergeCell ref="C3:C19"/>
-    <mergeCell ref="D3:D19"/>
-    <mergeCell ref="E3:E19"/>
-    <mergeCell ref="F3:F19"/>
-    <mergeCell ref="B43:B53"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D43:D53"/>
-    <mergeCell ref="E43:E53"/>
-    <mergeCell ref="F43:F53"/>
-    <mergeCell ref="B32:B42"/>
-    <mergeCell ref="C32:C42"/>
-    <mergeCell ref="D32:D42"/>
-    <mergeCell ref="E32:E42"/>
-    <mergeCell ref="F32:F42"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="E54:E61"/>
-    <mergeCell ref="F54:F61"/>
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="C78:C85"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="E78:E85"/>
-    <mergeCell ref="F78:F85"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="C94:C101"/>
-    <mergeCell ref="D94:D101"/>
-    <mergeCell ref="E94:E101"/>
-    <mergeCell ref="F94:F101"/>
-    <mergeCell ref="B86:B93"/>
-    <mergeCell ref="C86:C93"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="B110:B117"/>
-    <mergeCell ref="C110:C117"/>
-    <mergeCell ref="D110:D117"/>
-    <mergeCell ref="E110:E117"/>
-    <mergeCell ref="F110:F117"/>
-    <mergeCell ref="B102:B109"/>
-    <mergeCell ref="C102:C109"/>
-    <mergeCell ref="D102:D109"/>
-    <mergeCell ref="E102:E109"/>
-    <mergeCell ref="F102:F109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4519,66 +4521,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="C11:C22"/>
+    <mergeCell ref="D11:D22"/>
+    <mergeCell ref="E11:E22"/>
+    <mergeCell ref="F11:F22"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="C34:C44"/>
+    <mergeCell ref="D34:D44"/>
+    <mergeCell ref="E34:E44"/>
+    <mergeCell ref="F34:F44"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="C23:C33"/>
+    <mergeCell ref="D23:D33"/>
+    <mergeCell ref="E23:E33"/>
+    <mergeCell ref="F23:F33"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="E55:E62"/>
+    <mergeCell ref="F55:F62"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="D45:D54"/>
+    <mergeCell ref="E45:E54"/>
+    <mergeCell ref="F45:F54"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="D71:D78"/>
+    <mergeCell ref="E71:E78"/>
+    <mergeCell ref="F71:F78"/>
+    <mergeCell ref="B63:B70"/>
+    <mergeCell ref="C63:C70"/>
+    <mergeCell ref="D63:D70"/>
+    <mergeCell ref="E63:E70"/>
+    <mergeCell ref="F63:F70"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="C87:C94"/>
+    <mergeCell ref="D87:D94"/>
+    <mergeCell ref="E87:E94"/>
+    <mergeCell ref="F87:F94"/>
+    <mergeCell ref="B79:B86"/>
+    <mergeCell ref="C79:C86"/>
+    <mergeCell ref="D79:D86"/>
+    <mergeCell ref="E79:E86"/>
+    <mergeCell ref="F79:F86"/>
+    <mergeCell ref="B111:B118"/>
+    <mergeCell ref="C111:C118"/>
+    <mergeCell ref="D111:D118"/>
+    <mergeCell ref="E111:E118"/>
+    <mergeCell ref="F111:F118"/>
     <mergeCell ref="B95:B110"/>
     <mergeCell ref="C95:C110"/>
     <mergeCell ref="D95:D110"/>
     <mergeCell ref="E95:E110"/>
     <mergeCell ref="F95:F110"/>
-    <mergeCell ref="B111:B118"/>
-    <mergeCell ref="C111:C118"/>
-    <mergeCell ref="D111:D118"/>
-    <mergeCell ref="E111:E118"/>
-    <mergeCell ref="F111:F118"/>
-    <mergeCell ref="B79:B86"/>
-    <mergeCell ref="C79:C86"/>
-    <mergeCell ref="D79:D86"/>
-    <mergeCell ref="E79:E86"/>
-    <mergeCell ref="F79:F86"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="C87:C94"/>
-    <mergeCell ref="D87:D94"/>
-    <mergeCell ref="E87:E94"/>
-    <mergeCell ref="F87:F94"/>
-    <mergeCell ref="B63:B70"/>
-    <mergeCell ref="C63:C70"/>
-    <mergeCell ref="D63:D70"/>
-    <mergeCell ref="E63:E70"/>
-    <mergeCell ref="F63:F70"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="D71:D78"/>
-    <mergeCell ref="E71:E78"/>
-    <mergeCell ref="F71:F78"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="D45:D54"/>
-    <mergeCell ref="E45:E54"/>
-    <mergeCell ref="F45:F54"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="D55:D62"/>
-    <mergeCell ref="E55:E62"/>
-    <mergeCell ref="F55:F62"/>
-    <mergeCell ref="B23:B33"/>
-    <mergeCell ref="C23:C33"/>
-    <mergeCell ref="D23:D33"/>
-    <mergeCell ref="E23:E33"/>
-    <mergeCell ref="F23:F33"/>
-    <mergeCell ref="B34:B44"/>
-    <mergeCell ref="C34:C44"/>
-    <mergeCell ref="D34:D44"/>
-    <mergeCell ref="E34:E44"/>
-    <mergeCell ref="F34:F44"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="B11:B22"/>
-    <mergeCell ref="C11:C22"/>
-    <mergeCell ref="D11:D22"/>
-    <mergeCell ref="E11:E22"/>
-    <mergeCell ref="F11:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4590,7 +4592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F299"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:F38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4670,10 +4674,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>83</v>
@@ -4743,13 +4747,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>84</v>
@@ -4816,16 +4820,16 @@
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4875,13 +4879,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="F33" s="5"/>
     </row>
@@ -4925,16 +4929,16 @@
         <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="F39" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4991,16 +4995,16 @@
         <v>7</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5050,16 +5054,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5109,16 +5113,16 @@
         <v>9</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="F61" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5154,16 +5158,16 @@
         <v>10</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D66" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="F66" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5199,13 +5203,13 @@
         <v>11</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="F71" s="5"/>
     </row>
@@ -5235,14 +5239,14 @@
         <v>12</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5299,16 +5303,16 @@
         <v>13</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="F83" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5372,16 +5376,16 @@
         <v>14</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="F92" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5438,16 +5442,16 @@
         <v>15</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="F100" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5504,16 +5508,16 @@
         <v>16</v>
       </c>
       <c r="C108" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="E108" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5570,16 +5574,16 @@
         <v>17</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="E116" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F116" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="117" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5636,13 +5640,13 @@
         <v>18</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F124" s="5"/>
     </row>
@@ -5700,16 +5704,16 @@
         <v>19</v>
       </c>
       <c r="C132" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E132" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E132" s="5" t="s">
+      <c r="F132" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="133" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5766,13 +5770,13 @@
         <v>20</v>
       </c>
       <c r="C140" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="E140" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="F140" s="5"/>
     </row>
@@ -6891,186 +6895,6 @@
     </row>
   </sheetData>
   <mergeCells count="195">
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C16"/>
-    <mergeCell ref="D8:D16"/>
-    <mergeCell ref="E8:E16"/>
-    <mergeCell ref="F8:F16"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="D17:D25"/>
-    <mergeCell ref="E17:E25"/>
-    <mergeCell ref="F17:F25"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="D39:D46"/>
-    <mergeCell ref="E39:E46"/>
-    <mergeCell ref="F39:F46"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="D47:D53"/>
-    <mergeCell ref="E47:E53"/>
-    <mergeCell ref="F47:F53"/>
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="D54:D60"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="F54:F60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="D66:D70"/>
-    <mergeCell ref="E66:E70"/>
-    <mergeCell ref="F66:F70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="C75:C82"/>
-    <mergeCell ref="D75:D82"/>
-    <mergeCell ref="E75:E82"/>
-    <mergeCell ref="F75:F82"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="C83:C91"/>
-    <mergeCell ref="D83:D91"/>
-    <mergeCell ref="E83:E91"/>
-    <mergeCell ref="F83:F91"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="D92:D99"/>
-    <mergeCell ref="E92:E99"/>
-    <mergeCell ref="F92:F99"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="C100:C107"/>
-    <mergeCell ref="D100:D107"/>
-    <mergeCell ref="E100:E107"/>
-    <mergeCell ref="F100:F107"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="C108:C115"/>
-    <mergeCell ref="D108:D115"/>
-    <mergeCell ref="E108:E115"/>
-    <mergeCell ref="F108:F115"/>
-    <mergeCell ref="B116:B123"/>
-    <mergeCell ref="C116:C123"/>
-    <mergeCell ref="D116:D123"/>
-    <mergeCell ref="E116:E123"/>
-    <mergeCell ref="F116:F123"/>
-    <mergeCell ref="B124:B131"/>
-    <mergeCell ref="C124:C131"/>
-    <mergeCell ref="D124:D131"/>
-    <mergeCell ref="E124:E131"/>
-    <mergeCell ref="F124:F131"/>
-    <mergeCell ref="B132:B139"/>
-    <mergeCell ref="C132:C139"/>
-    <mergeCell ref="D132:D139"/>
-    <mergeCell ref="E132:E139"/>
-    <mergeCell ref="F132:F139"/>
-    <mergeCell ref="B140:B147"/>
-    <mergeCell ref="C140:C147"/>
-    <mergeCell ref="D140:D147"/>
-    <mergeCell ref="E140:E147"/>
-    <mergeCell ref="F140:F147"/>
-    <mergeCell ref="B148:B155"/>
-    <mergeCell ref="C148:C155"/>
-    <mergeCell ref="D148:D155"/>
-    <mergeCell ref="E148:E155"/>
-    <mergeCell ref="F148:F155"/>
-    <mergeCell ref="B156:B163"/>
-    <mergeCell ref="C156:C163"/>
-    <mergeCell ref="D156:D163"/>
-    <mergeCell ref="E156:E163"/>
-    <mergeCell ref="F156:F163"/>
-    <mergeCell ref="B164:B171"/>
-    <mergeCell ref="C164:C171"/>
-    <mergeCell ref="D164:D171"/>
-    <mergeCell ref="E164:E171"/>
-    <mergeCell ref="F164:F171"/>
-    <mergeCell ref="B172:B179"/>
-    <mergeCell ref="C172:C179"/>
-    <mergeCell ref="D172:D179"/>
-    <mergeCell ref="E172:E179"/>
-    <mergeCell ref="F172:F179"/>
-    <mergeCell ref="B180:B187"/>
-    <mergeCell ref="C180:C187"/>
-    <mergeCell ref="D180:D187"/>
-    <mergeCell ref="E180:E187"/>
-    <mergeCell ref="F180:F187"/>
-    <mergeCell ref="B188:B195"/>
-    <mergeCell ref="C188:C195"/>
-    <mergeCell ref="D188:D195"/>
-    <mergeCell ref="E188:E195"/>
-    <mergeCell ref="F188:F195"/>
-    <mergeCell ref="B196:B203"/>
-    <mergeCell ref="C196:C203"/>
-    <mergeCell ref="D196:D203"/>
-    <mergeCell ref="E196:E203"/>
-    <mergeCell ref="F196:F203"/>
-    <mergeCell ref="B204:B211"/>
-    <mergeCell ref="C204:C211"/>
-    <mergeCell ref="D204:D211"/>
-    <mergeCell ref="E204:E211"/>
-    <mergeCell ref="F204:F211"/>
-    <mergeCell ref="B212:B219"/>
-    <mergeCell ref="C212:C219"/>
-    <mergeCell ref="D212:D219"/>
-    <mergeCell ref="E212:E219"/>
-    <mergeCell ref="F212:F219"/>
-    <mergeCell ref="B220:B227"/>
-    <mergeCell ref="C220:C227"/>
-    <mergeCell ref="D220:D227"/>
-    <mergeCell ref="E220:E227"/>
-    <mergeCell ref="F220:F227"/>
-    <mergeCell ref="B228:B235"/>
-    <mergeCell ref="C228:C235"/>
-    <mergeCell ref="D228:D235"/>
-    <mergeCell ref="E228:E235"/>
-    <mergeCell ref="F228:F235"/>
-    <mergeCell ref="B236:B243"/>
-    <mergeCell ref="C236:C243"/>
-    <mergeCell ref="D236:D243"/>
-    <mergeCell ref="E236:E243"/>
-    <mergeCell ref="F236:F243"/>
-    <mergeCell ref="B244:B251"/>
-    <mergeCell ref="C244:C251"/>
-    <mergeCell ref="D244:D251"/>
-    <mergeCell ref="E244:E251"/>
-    <mergeCell ref="F244:F251"/>
-    <mergeCell ref="B252:B259"/>
-    <mergeCell ref="C252:C259"/>
-    <mergeCell ref="D252:D259"/>
-    <mergeCell ref="E252:E259"/>
-    <mergeCell ref="F252:F259"/>
-    <mergeCell ref="B260:B267"/>
-    <mergeCell ref="C260:C267"/>
-    <mergeCell ref="D260:D267"/>
-    <mergeCell ref="E260:E267"/>
-    <mergeCell ref="F260:F267"/>
-    <mergeCell ref="B268:B275"/>
-    <mergeCell ref="C268:C275"/>
-    <mergeCell ref="D268:D275"/>
-    <mergeCell ref="E268:E275"/>
-    <mergeCell ref="F268:F275"/>
     <mergeCell ref="B292:B299"/>
     <mergeCell ref="C292:C299"/>
     <mergeCell ref="D292:D299"/>
@@ -7086,6 +6910,186 @@
     <mergeCell ref="D284:D291"/>
     <mergeCell ref="E284:E291"/>
     <mergeCell ref="F284:F291"/>
+    <mergeCell ref="B260:B267"/>
+    <mergeCell ref="C260:C267"/>
+    <mergeCell ref="D260:D267"/>
+    <mergeCell ref="E260:E267"/>
+    <mergeCell ref="F260:F267"/>
+    <mergeCell ref="B268:B275"/>
+    <mergeCell ref="C268:C275"/>
+    <mergeCell ref="D268:D275"/>
+    <mergeCell ref="E268:E275"/>
+    <mergeCell ref="F268:F275"/>
+    <mergeCell ref="B244:B251"/>
+    <mergeCell ref="C244:C251"/>
+    <mergeCell ref="D244:D251"/>
+    <mergeCell ref="E244:E251"/>
+    <mergeCell ref="F244:F251"/>
+    <mergeCell ref="B252:B259"/>
+    <mergeCell ref="C252:C259"/>
+    <mergeCell ref="D252:D259"/>
+    <mergeCell ref="E252:E259"/>
+    <mergeCell ref="F252:F259"/>
+    <mergeCell ref="B228:B235"/>
+    <mergeCell ref="C228:C235"/>
+    <mergeCell ref="D228:D235"/>
+    <mergeCell ref="E228:E235"/>
+    <mergeCell ref="F228:F235"/>
+    <mergeCell ref="B236:B243"/>
+    <mergeCell ref="C236:C243"/>
+    <mergeCell ref="D236:D243"/>
+    <mergeCell ref="E236:E243"/>
+    <mergeCell ref="F236:F243"/>
+    <mergeCell ref="B212:B219"/>
+    <mergeCell ref="C212:C219"/>
+    <mergeCell ref="D212:D219"/>
+    <mergeCell ref="E212:E219"/>
+    <mergeCell ref="F212:F219"/>
+    <mergeCell ref="B220:B227"/>
+    <mergeCell ref="C220:C227"/>
+    <mergeCell ref="D220:D227"/>
+    <mergeCell ref="E220:E227"/>
+    <mergeCell ref="F220:F227"/>
+    <mergeCell ref="B196:B203"/>
+    <mergeCell ref="C196:C203"/>
+    <mergeCell ref="D196:D203"/>
+    <mergeCell ref="E196:E203"/>
+    <mergeCell ref="F196:F203"/>
+    <mergeCell ref="B204:B211"/>
+    <mergeCell ref="C204:C211"/>
+    <mergeCell ref="D204:D211"/>
+    <mergeCell ref="E204:E211"/>
+    <mergeCell ref="F204:F211"/>
+    <mergeCell ref="B180:B187"/>
+    <mergeCell ref="C180:C187"/>
+    <mergeCell ref="D180:D187"/>
+    <mergeCell ref="E180:E187"/>
+    <mergeCell ref="F180:F187"/>
+    <mergeCell ref="B188:B195"/>
+    <mergeCell ref="C188:C195"/>
+    <mergeCell ref="D188:D195"/>
+    <mergeCell ref="E188:E195"/>
+    <mergeCell ref="F188:F195"/>
+    <mergeCell ref="B164:B171"/>
+    <mergeCell ref="C164:C171"/>
+    <mergeCell ref="D164:D171"/>
+    <mergeCell ref="E164:E171"/>
+    <mergeCell ref="F164:F171"/>
+    <mergeCell ref="B172:B179"/>
+    <mergeCell ref="C172:C179"/>
+    <mergeCell ref="D172:D179"/>
+    <mergeCell ref="E172:E179"/>
+    <mergeCell ref="F172:F179"/>
+    <mergeCell ref="B148:B155"/>
+    <mergeCell ref="C148:C155"/>
+    <mergeCell ref="D148:D155"/>
+    <mergeCell ref="E148:E155"/>
+    <mergeCell ref="F148:F155"/>
+    <mergeCell ref="B156:B163"/>
+    <mergeCell ref="C156:C163"/>
+    <mergeCell ref="D156:D163"/>
+    <mergeCell ref="E156:E163"/>
+    <mergeCell ref="F156:F163"/>
+    <mergeCell ref="B132:B139"/>
+    <mergeCell ref="C132:C139"/>
+    <mergeCell ref="D132:D139"/>
+    <mergeCell ref="E132:E139"/>
+    <mergeCell ref="F132:F139"/>
+    <mergeCell ref="B140:B147"/>
+    <mergeCell ref="C140:C147"/>
+    <mergeCell ref="D140:D147"/>
+    <mergeCell ref="E140:E147"/>
+    <mergeCell ref="F140:F147"/>
+    <mergeCell ref="B116:B123"/>
+    <mergeCell ref="C116:C123"/>
+    <mergeCell ref="D116:D123"/>
+    <mergeCell ref="E116:E123"/>
+    <mergeCell ref="F116:F123"/>
+    <mergeCell ref="B124:B131"/>
+    <mergeCell ref="C124:C131"/>
+    <mergeCell ref="D124:D131"/>
+    <mergeCell ref="E124:E131"/>
+    <mergeCell ref="F124:F131"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="C100:C107"/>
+    <mergeCell ref="D100:D107"/>
+    <mergeCell ref="E100:E107"/>
+    <mergeCell ref="F100:F107"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="C108:C115"/>
+    <mergeCell ref="D108:D115"/>
+    <mergeCell ref="E108:E115"/>
+    <mergeCell ref="F108:F115"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="C83:C91"/>
+    <mergeCell ref="D83:D91"/>
+    <mergeCell ref="E83:E91"/>
+    <mergeCell ref="F83:F91"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="D92:D99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="F92:F99"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="D75:D82"/>
+    <mergeCell ref="E75:E82"/>
+    <mergeCell ref="F75:F82"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="D66:D70"/>
+    <mergeCell ref="E66:E70"/>
+    <mergeCell ref="F66:F70"/>
+    <mergeCell ref="B47:B53"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="D47:D53"/>
+    <mergeCell ref="E47:E53"/>
+    <mergeCell ref="F47:F53"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="D54:D60"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="F54:F60"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="E39:E46"/>
+    <mergeCell ref="F39:F46"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="D17:D25"/>
+    <mergeCell ref="E17:E25"/>
+    <mergeCell ref="F17:F25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="E8:E16"/>
+    <mergeCell ref="F8:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
+++ b/docs/接口文档/指控级联业务协议/录制调阅接口.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="160">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -669,19 +669,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    id:"字幕id",
-    uuid:"字幕uuid",
-    name:"字幕别名",
-    content:"字幕内容",
-    font:"字体"，
-    height:"字体高度",
-    color:"字体颜色16进制无#号（例：000000）",
-    username:"创建用户用户名"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除字幕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,15 +686,6 @@
   </si>
   <si>
     <t>http://192.165.56.18:8094/monitor/subtitle/remove/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url参数：Long id 字幕id
-String name 字幕名称
-String content 文本内容
-String font 字体（"黑体","楷体","宋体","仿宋","微软雅黑"）默认黑体
-Integer height 字体大小（0-100，默认20）
-String color 16进制颜色 没有#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1177,10 +1155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.165.56.18:8094/monitor/osd/layer/sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Long osdId osd id
 int x 横坐标百分比0~100
 int y 纵坐标百分比0~100
@@ -1234,6 +1208,57 @@
   </si>
   <si>
     <t>http://192.165.56.18:8094/monitor/subtitle/load/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置osd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/monitor/osd/layer/sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer serial 分屏序号
+Long osdId osd id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除osd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/command/basic/set/osd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.165.56.18:8094/command/basic/clear/osd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer serial 分屏序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    id:"字幕id",
+    uuid:"字幕uuid",
+    name:"字幕别名",
+    content:"字幕内容",
+    font:"字体"，
+    height:"字体高度",
+    color:"字体颜色16进制无#号（例：000000）",
+    username:"创建用户用户名"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url参数：Long id 字幕id
+String name 字幕名称
+String content 文本内容
+String font 字体（"黑体","楷体","宋体","仿宋","微软雅黑"）默认黑体
+Integer height 字体大小（1-9，默认5）
+String color 16进制颜色 没有#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3100,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>19</v>
@@ -3161,16 +3186,16 @@
         <v>7</v>
       </c>
       <c r="C70" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="F70" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4592,9 +4617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F299"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:F38"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4677,7 +4700,7 @@
         <v>85</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>83</v>
@@ -4750,7 +4773,7 @@
         <v>86</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>87</v>
@@ -4823,13 +4846,13 @@
         <v>88</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4879,13 +4902,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F33" s="5"/>
     </row>
@@ -4929,16 +4952,16 @@
         <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4995,16 +5018,16 @@
         <v>7</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5054,16 +5077,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5113,16 +5136,16 @@
         <v>9</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="F61" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5158,16 +5181,16 @@
         <v>10</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D66" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="F66" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5203,13 +5226,13 @@
         <v>11</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="F71" s="5"/>
     </row>
@@ -5239,14 +5262,14 @@
         <v>12</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5303,16 +5326,16 @@
         <v>13</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="F83" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5376,16 +5399,16 @@
         <v>14</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="F92" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5442,16 +5465,16 @@
         <v>15</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="F100" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5508,16 +5531,16 @@
         <v>16</v>
       </c>
       <c r="C108" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="E108" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5574,16 +5597,16 @@
         <v>17</v>
       </c>
       <c r="C116" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="E116" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F116" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="117" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5640,13 +5663,13 @@
         <v>18</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F124" s="5"/>
     </row>
@@ -5704,16 +5727,16 @@
         <v>19</v>
       </c>
       <c r="C132" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E132" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E132" s="5" t="s">
+      <c r="F132" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="133" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5770,13 +5793,13 @@
         <v>20</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F140" s="5"/>
     </row>
@@ -5830,116 +5853,132 @@
       <c r="F147" s="7"/>
     </row>
     <row r="148" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B148" s="3"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
+      <c r="B148" s="8">
+        <v>21</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F148" s="10"/>
     </row>
     <row r="149" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="3"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
     </row>
     <row r="150" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B150" s="3"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
     </row>
     <row r="151" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="3"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
     </row>
     <row r="152" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="3"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
     </row>
     <row r="153" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="3"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
     </row>
     <row r="154" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B154" s="3"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
     </row>
     <row r="155" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B155" s="3"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
     </row>
     <row r="156" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B156" s="3"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
+      <c r="B156" s="8">
+        <v>22</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F156" s="10"/>
     </row>
     <row r="157" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="3"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
     </row>
     <row r="158" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="3"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
     </row>
     <row r="159" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="3"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
     </row>
     <row r="160" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B160" s="3"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
     </row>
     <row r="161" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B161" s="3"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
     </row>
     <row r="162" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="3"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
     </row>
     <row r="163" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B163" s="3"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
     </row>
     <row r="164" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B164" s="3"/>
